--- a/Design.xlsx
+++ b/Design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Architecture" sheetId="3" r:id="rId1"/>
@@ -13,14 +13,14 @@
     <sheet name="Web App" sheetId="7" r:id="rId4"/>
     <sheet name="Mobile App" sheetId="9" r:id="rId5"/>
     <sheet name="backup" sheetId="8" state="hidden" r:id="rId6"/>
+    <sheet name="Services" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="209">
   <si>
     <t>sales_person</t>
   </si>
@@ -439,9 +439,6 @@
     <t xml:space="preserve">INSERT INTO invoice (date, time,  sales_person,cutomer_phone,total_amount,total_tax,payment_type) VALUES ( '2016-03-19','05:54:26', 'Ali',11223344556,16.54,2.02,'Cash'); </t>
   </si>
   <si>
-    <t xml:space="preserve">INSERT INTO items (invoice_id,product_category,product_name,product_price,quantity,amount,tax) VALUES (1,'Floral', 'Daisy by Marc Jacobs',2.54,12,0.02); </t>
-  </si>
-  <si>
     <t>Payment Mode</t>
   </si>
   <si>
@@ -596,6 +593,60 @@
   </si>
   <si>
     <t>3ttechs@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO items (invoice_id,product_category,product_name,product_price,quantity,amount,tax) VALUES (6,'Floral', 'Daisy by Marc Jacobs2',2.542,12,0.02); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO items (invoice_id,product_category,product_name,product_price,quantity,amount,tax) VALUES (1,'Floral', 'Daisy by Marc Jacobs',2.54,12,24,0.02); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO items (invoice_id,product_category,product_name,product_price,quantity,amount,tax) VALUES (1,'Floral', 'Daisy by Marc Jacobs1',2.541,12,24,0.02); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO items (invoice_id,product_category,product_name,product_price,quantity,amount,tax) VALUES (1,'Floral', 'Daisy by Marc Jacobs2',2.542,12,24,0.02); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO items (invoice_id,product_category,product_name,product_price,quantity,amount,tax) VALUES (2,'Floral', 'Daisy by Marc Jacobs',2.54,12,24,0.02); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO items (invoice_id,product_category,product_name,product_price,quantity,amount,tax) VALUES (2,'Floral', 'Daisy by Marc Jacobs1',2.541,12,24,0.02); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO items (invoice_id,product_category,product_name,product_price,quantity,amount,tax) VALUES (2,'Floral', 'Daisy by Marc Jacobs2',2.542,12,24,0.02); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO items (invoice_id,product_category,product_name,product_price,quantity,amount,tax) VALUES (3,'Floral', 'Daisy by Marc Jacobs',2.54,12,24,0.02); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO items (invoice_id,product_category,product_name,product_price,quantity,amount,tax) VALUES (3,'Floral', 'Daisy by Marc Jacobs1',2.541,12,24,0.02); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO items (invoice_id,product_category,product_name,product_price,quantity,amount,tax) VALUES (3,'Floral', 'Daisy by Marc Jacobs2',2.542,12,24,0.02); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO items (invoice_id,product_category,product_name,product_price,quantity,amount,tax) VALUES (4,'Floral', 'Daisy by Marc Jacobs',2.54,12,24,0.02); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO items (invoice_id,product_category,product_name,product_price,quantity,amount,tax) VALUES (4,'Floral', 'Daisy by Marc Jacobs1',2.541,12,24,0.02); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO items (invoice_id,product_category,product_name,product_price,quantity,amount,tax) VALUES (4,'Floral', 'Daisy by Marc Jacobs2',2.542,12,24,0.02); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO items (invoice_id,product_category,product_name,product_price,quantity,amount,tax) VALUES (5,'Floral', 'Daisy by Marc Jacobs',2.54,12,24,0.02); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO items (invoice_id,product_category,product_name,product_price,quantity,amount,tax) VALUES (5,'Floral', 'Daisy by Marc Jacobs1',2.541,12,24,0.02); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO items (invoice_id,product_category,product_name,product_price,quantity,amount,tax) VALUES (5,'Floral', 'Daisy by Marc Jacobs2',2.542,12,24,0.02); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO items (invoice_id,product_category,product_name,product_price,quantity,amount,tax) VALUES (6,'Floral', 'Daisy by Marc Jacobs',2.54,12,24,0.02); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO items (invoice_id,product_category,product_name,product_price,quantity,amount,tax) VALUES (6,'Floral', 'Daisy by Marc Jacobs1',2.541,12,24,0.02); </t>
   </si>
 </sst>
 </file>
@@ -1005,12 +1056,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1141,12 +1186,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1163,27 +1202,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1205,6 +1223,39 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1547,8 +1598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1564,7 +1615,7 @@
         <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D1" t="s">
         <v>60</v>
@@ -1633,26 +1684,26 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B9" t="s">
         <v>188</v>
-      </c>
-      <c r="B9" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B10" s="162" t="s">
-        <v>191</v>
+        <v>158</v>
+      </c>
+      <c r="B10" s="151" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -1667,8 +1718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:L32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31:J31"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1722,16 +1773,16 @@
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="11"/>
-      <c r="I2" s="152" t="s">
+      <c r="I2" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="152" t="s">
+      <c r="J2" s="141" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="152" t="s">
+      <c r="K2" s="141" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="152" t="s">
+      <c r="L2" s="141" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1747,16 +1798,16 @@
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="13"/>
-      <c r="I3" s="151" t="s">
+      <c r="I3" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="151" t="s">
+      <c r="J3" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="152" t="s">
+      <c r="K3" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="152" t="s">
+      <c r="L3" s="141" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1789,16 +1840,16 @@
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="11"/>
-      <c r="I5" s="151" t="s">
+      <c r="I5" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="151" t="s">
+      <c r="J5" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="152" t="s">
+      <c r="K5" s="141" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="152" t="s">
+      <c r="L5" s="141" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1814,16 +1865,16 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="13"/>
-      <c r="I6" s="151" t="s">
+      <c r="I6" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="151" t="s">
+      <c r="J6" s="140" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="152" t="s">
+      <c r="K6" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="152" t="s">
+      <c r="L6" s="141" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1882,17 +1933,17 @@
       <c r="H10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="150" t="s">
+      <c r="I10" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="150" t="s">
+      <c r="J10" s="139" t="s">
         <v>42</v>
       </c>
       <c r="K10" t="s">
         <v>32</v>
       </c>
       <c r="L10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="2:12">
@@ -1907,10 +1958,10 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="151" t="s">
+      <c r="I11" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="151" t="s">
+      <c r="J11" s="140" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1926,10 +1977,10 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="13"/>
-      <c r="I12" s="152" t="s">
+      <c r="I12" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="152" t="s">
+      <c r="J12" s="141" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2034,10 +2085,10 @@
         <v>2</v>
       </c>
       <c r="H20" s="18"/>
-      <c r="I20" s="152" t="s">
+      <c r="I20" s="141" t="s">
         <v>33</v>
       </c>
-      <c r="J20" s="152" t="s">
+      <c r="J20" s="141" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2053,10 +2104,10 @@
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="13"/>
-      <c r="I21" s="152" t="s">
+      <c r="I21" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="J21" s="152" t="s">
+      <c r="J21" s="141" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2168,10 +2219,10 @@
       <c r="D30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="30"/>
+      <c r="E30" s="152"/>
+      <c r="F30" s="152"/>
+      <c r="G30" s="152"/>
+      <c r="H30" s="153"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="3"/>
@@ -2185,10 +2236,10 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="5"/>
-      <c r="I31" s="151" t="s">
+      <c r="I31" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="J31" s="151" t="s">
+      <c r="J31" s="140" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2216,10 +2267,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A78"/>
+  <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2559,7 +2610,92 @@
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>139</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2592,202 +2728,202 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" s="48"/>
+      <c r="C3" s="154" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="154"/>
+      <c r="E3" s="51"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" s="48"/>
+      <c r="C4" s="154" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="154"/>
+      <c r="E4" s="51"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" s="48"/>
+      <c r="C5" s="154" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="154"/>
+      <c r="E5" s="51"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="48"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="51"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" s="48"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="51"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="48"/>
+      <c r="C8" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="116"/>
+      <c r="E8" s="51"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="48"/>
+      <c r="C9" s="49" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="B2" s="47"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="B3" s="50"/>
-      <c r="C3" s="143" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" s="143"/>
-      <c r="E3" s="53"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="B4" s="50"/>
-      <c r="C4" s="143" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="143"/>
-      <c r="E4" s="53"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="B5" s="50"/>
-      <c r="C5" s="143" t="s">
-        <v>162</v>
-      </c>
-      <c r="D5" s="143"/>
-      <c r="E5" s="53"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="53"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="B7" s="50"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="53"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="B8" s="50"/>
-      <c r="C8" s="51" t="s">
-        <v>183</v>
-      </c>
-      <c r="D8" s="118"/>
-      <c r="E8" s="53"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9" s="50"/>
-      <c r="C9" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="D9" s="118"/>
-      <c r="E9" s="53"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="51"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="B10" s="50"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="53"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="51"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="B11" s="50"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="153" t="s">
-        <v>159</v>
-      </c>
-      <c r="E11" s="53"/>
-      <c r="G11" s="151" t="s">
+      <c r="B11" s="48"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="142" t="s">
+        <v>158</v>
+      </c>
+      <c r="E11" s="51"/>
+      <c r="G11" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="151" t="s">
+      <c r="H11" s="140" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="B12" s="50"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="53"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="51"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="B13" s="60"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="62"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="60"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="B16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="B17" s="143"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+    </row>
+    <row r="18" spans="1:10" ht="21">
+      <c r="B18" s="146" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" s="148" t="s">
+        <v>183</v>
+      </c>
+      <c r="D18" s="149">
+        <v>24</v>
+      </c>
+      <c r="E18" s="150"/>
+      <c r="G18" s="140" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="140" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="21">
+      <c r="B19" s="147" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="148"/>
+      <c r="D19" s="149"/>
+      <c r="E19" s="150"/>
+    </row>
+    <row r="20" spans="1:10" ht="21">
+      <c r="B20" s="147" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="148" t="s">
+        <v>184</v>
+      </c>
+      <c r="D20" s="149">
+        <v>123.5</v>
+      </c>
+      <c r="E20" s="150"/>
+    </row>
+    <row r="21" spans="1:10" ht="21">
+      <c r="B21" s="147" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+    </row>
+    <row r="22" spans="1:10" ht="21">
+      <c r="B22" s="147" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="148" t="s">
+        <v>185</v>
+      </c>
+      <c r="D22" s="149">
+        <v>5</v>
+      </c>
+      <c r="E22" s="150"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="B23" s="147" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="B17" s="154"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
-    </row>
-    <row r="18" spans="1:10" ht="21">
-      <c r="B18" s="157" t="s">
-        <v>182</v>
-      </c>
-      <c r="C18" s="159" t="s">
-        <v>184</v>
-      </c>
-      <c r="D18" s="160">
-        <v>24</v>
-      </c>
-      <c r="E18" s="161"/>
-      <c r="G18" s="151" t="s">
+      <c r="C23" s="39"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="41"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="B24" s="144"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="41"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="B25" s="144"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="41"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="B26" s="145"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="44"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="F27" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="151" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="21">
-      <c r="B19" s="158" t="s">
-        <v>143</v>
-      </c>
-      <c r="C19" s="159"/>
-      <c r="D19" s="160"/>
-      <c r="E19" s="161"/>
-    </row>
-    <row r="20" spans="1:10" ht="21">
-      <c r="B20" s="158" t="s">
-        <v>144</v>
-      </c>
-      <c r="C20" s="159" t="s">
-        <v>185</v>
-      </c>
-      <c r="D20" s="160">
-        <v>123.5</v>
-      </c>
-      <c r="E20" s="161"/>
-    </row>
-    <row r="21" spans="1:10" ht="21">
-      <c r="B21" s="158" t="s">
-        <v>151</v>
-      </c>
-      <c r="C21" s="159"/>
-      <c r="D21" s="160"/>
-      <c r="E21" s="161"/>
-    </row>
-    <row r="22" spans="1:10" ht="21">
-      <c r="B22" s="158" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="159" t="s">
-        <v>186</v>
-      </c>
-      <c r="D22" s="160">
-        <v>5</v>
-      </c>
-      <c r="E22" s="161"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="B23" s="158" t="s">
-        <v>181</v>
-      </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="43"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="B24" s="155"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="43"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="B25" s="155"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="43"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="B26" s="156"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="46"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="F27" s="150" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="150" t="s">
+      <c r="G27" s="139" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2796,427 +2932,427 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="B29" s="63"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="65"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="63"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="B30" s="66"/>
-      <c r="C30" s="67" t="s">
+      <c r="B30" s="64"/>
+      <c r="C30" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="118"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="31" t="s">
+      <c r="D30" s="116"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="68"/>
+      <c r="J30" s="66"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="B31" s="66"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="68"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="66"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="B32" s="66"/>
-      <c r="C32" s="67" t="s">
+      <c r="B32" s="64"/>
+      <c r="C32" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="D32" s="69">
+      <c r="D32" s="67">
         <v>1234</v>
       </c>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67" t="s">
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="H32" s="70">
+      <c r="H32" s="68">
         <v>43534</v>
       </c>
-      <c r="I32" s="71">
+      <c r="I32" s="69">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J32" s="72"/>
+      <c r="J32" s="70"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="B33" s="66"/>
-      <c r="C33" s="67" t="s">
+      <c r="B33" s="64"/>
+      <c r="C33" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="69">
+      <c r="D33" s="67">
         <v>9448373533</v>
       </c>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67" t="s">
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="H33" s="69" t="s">
+      <c r="H33" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="I33" s="67"/>
-      <c r="J33" s="68"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="66"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="B34" s="66"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="68"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="66"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="B35" s="66"/>
-      <c r="C35" s="31" t="s">
+      <c r="B35" s="64"/>
+      <c r="C35" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="31" t="s">
+      <c r="D35" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="31" t="s">
+      <c r="E35" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F35" s="31" t="s">
+      <c r="F35" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="G35" s="31" t="s">
+      <c r="G35" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="H35" s="31" t="s">
+      <c r="H35" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="I35" s="31" t="s">
+      <c r="I35" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="J35" s="68"/>
+      <c r="J35" s="66"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="B36" s="66"/>
-      <c r="C36" s="73">
+      <c r="B36" s="64"/>
+      <c r="C36" s="71">
         <v>1</v>
       </c>
-      <c r="D36" s="74" t="s">
+      <c r="D36" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="E36" s="74" t="s">
+      <c r="E36" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="F36" s="74">
+      <c r="F36" s="72">
         <v>10</v>
       </c>
-      <c r="G36" s="74">
+      <c r="G36" s="72">
         <v>1</v>
       </c>
-      <c r="H36" s="74">
+      <c r="H36" s="72">
         <f>F36*G36</f>
         <v>10</v>
       </c>
-      <c r="I36" s="75">
+      <c r="I36" s="73">
         <f>0.05*H36</f>
         <v>0.5</v>
       </c>
-      <c r="J36" s="68"/>
+      <c r="J36" s="66"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="B37" s="66"/>
-      <c r="C37" s="73">
+      <c r="B37" s="64"/>
+      <c r="C37" s="71">
         <v>2</v>
       </c>
-      <c r="D37" s="74" t="s">
+      <c r="D37" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="E37" s="74" t="s">
+      <c r="E37" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="F37" s="74">
+      <c r="F37" s="72">
         <v>20</v>
       </c>
-      <c r="G37" s="74">
+      <c r="G37" s="72">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H37" s="74">
+      <c r="H37" s="72">
         <f>F37*G37</f>
         <v>46</v>
       </c>
-      <c r="I37" s="75">
+      <c r="I37" s="73">
         <f>0.05*H37</f>
         <v>2.3000000000000003</v>
       </c>
-      <c r="J37" s="68"/>
+      <c r="J37" s="66"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="B38" s="66"/>
-      <c r="C38" s="73">
+      <c r="B38" s="64"/>
+      <c r="C38" s="71">
         <v>3</v>
       </c>
-      <c r="D38" s="74" t="s">
+      <c r="D38" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="E38" s="74" t="s">
+      <c r="E38" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="F38" s="74">
+      <c r="F38" s="72">
         <v>30</v>
       </c>
-      <c r="G38" s="74">
+      <c r="G38" s="72">
         <v>4</v>
       </c>
-      <c r="H38" s="74">
+      <c r="H38" s="72">
         <f>F38*G38</f>
         <v>120</v>
       </c>
-      <c r="I38" s="75">
+      <c r="I38" s="73">
         <f>0.05*H38</f>
         <v>6</v>
       </c>
-      <c r="J38" s="68"/>
+      <c r="J38" s="66"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="B39" s="66"/>
-      <c r="C39" s="76">
+      <c r="B39" s="64"/>
+      <c r="C39" s="74">
         <v>4</v>
       </c>
-      <c r="D39" s="77" t="s">
+      <c r="D39" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="E39" s="77" t="s">
+      <c r="E39" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="F39" s="77">
+      <c r="F39" s="75">
         <v>40</v>
       </c>
-      <c r="G39" s="77">
+      <c r="G39" s="75">
         <v>5</v>
       </c>
-      <c r="H39" s="77">
+      <c r="H39" s="75">
         <f>F39*G39</f>
         <v>200</v>
       </c>
-      <c r="I39" s="78">
+      <c r="I39" s="76">
         <f>0.05*H39</f>
         <v>10</v>
       </c>
-      <c r="J39" s="68"/>
+      <c r="J39" s="66"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="B40" s="66"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="67"/>
-      <c r="J40" s="68"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="66"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="B41" s="66"/>
-      <c r="C41" s="67"/>
-      <c r="D41" s="67"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="67" t="s">
-        <v>141</v>
-      </c>
-      <c r="H41" s="74">
+      <c r="B41" s="64"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="H41" s="72">
         <f>SUM(H36:H39)</f>
         <v>376</v>
       </c>
-      <c r="I41" s="74">
+      <c r="I41" s="72">
         <f>SUM(I36:I39)</f>
         <v>18.8</v>
       </c>
-      <c r="J41" s="68"/>
+      <c r="J41" s="66"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="B42" s="66"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67" t="s">
-        <v>140</v>
-      </c>
-      <c r="H42" s="69" t="s">
+      <c r="B42" s="64"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="H42" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="I42" s="67"/>
-      <c r="J42" s="68"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="66"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="B43" s="79"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="80"/>
-      <c r="F43" s="80"/>
-      <c r="G43" s="80"/>
-      <c r="H43" s="80"/>
-      <c r="I43" s="77"/>
-      <c r="J43" s="81"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="78"/>
+      <c r="H43" s="78"/>
+      <c r="I43" s="75"/>
+      <c r="J43" s="79"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45">
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="B46" s="47"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="49"/>
-      <c r="I46" s="151" t="s">
+      <c r="B46" s="45"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="47"/>
+      <c r="I46" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="J46" s="151" t="s">
+      <c r="J46" s="140" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="B47" s="50"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="82" t="s">
+      <c r="B47" s="48"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="80" t="s">
+        <v>147</v>
+      </c>
+      <c r="E47" s="80" t="s">
         <v>148</v>
       </c>
-      <c r="E47" s="82" t="s">
+      <c r="F47" s="80" t="s">
         <v>149</v>
       </c>
-      <c r="F47" s="82" t="s">
-        <v>150</v>
-      </c>
-      <c r="G47" s="53"/>
-      <c r="I47" s="151" t="s">
+      <c r="G47" s="51"/>
+      <c r="I47" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="J47" s="151" t="s">
+      <c r="J47" s="140" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="B48" s="50"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="53"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="51"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="B49" s="50"/>
-      <c r="C49" s="52" t="s">
+      <c r="B49" s="48"/>
+      <c r="C49" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="52" t="s">
+      <c r="D49" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="52" t="s">
+      <c r="E49" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="52" t="s">
+      <c r="F49" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="G49" s="53"/>
+      <c r="G49" s="51"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="B50" s="50"/>
-      <c r="C50" s="83">
+      <c r="B50" s="48"/>
+      <c r="C50" s="81">
         <v>1</v>
       </c>
-      <c r="D50" s="84" t="s">
+      <c r="D50" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="E50" s="84" t="s">
+      <c r="E50" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="F50" s="85">
+      <c r="F50" s="83">
         <v>10</v>
       </c>
-      <c r="G50" s="53"/>
+      <c r="G50" s="51"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="B51" s="50"/>
-      <c r="C51" s="54">
+      <c r="B51" s="48"/>
+      <c r="C51" s="52">
         <v>2</v>
       </c>
-      <c r="D51" s="55" t="s">
+      <c r="D51" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="E51" s="55" t="s">
+      <c r="E51" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="F51" s="56">
+      <c r="F51" s="54">
         <v>20</v>
       </c>
-      <c r="G51" s="53"/>
+      <c r="G51" s="51"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="B52" s="50"/>
-      <c r="C52" s="54">
+      <c r="B52" s="48"/>
+      <c r="C52" s="52">
         <v>3</v>
       </c>
-      <c r="D52" s="55" t="s">
+      <c r="D52" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="E52" s="55" t="s">
+      <c r="E52" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="F52" s="56">
+      <c r="F52" s="54">
         <v>30</v>
       </c>
-      <c r="G52" s="53"/>
+      <c r="G52" s="51"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="B53" s="50"/>
-      <c r="C53" s="57">
+      <c r="B53" s="48"/>
+      <c r="C53" s="55">
         <v>4</v>
       </c>
-      <c r="D53" s="58" t="s">
+      <c r="D53" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="E53" s="58" t="s">
+      <c r="E53" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="F53" s="59">
+      <c r="F53" s="57">
         <v>40</v>
       </c>
-      <c r="G53" s="53"/>
+      <c r="G53" s="51"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="B54" s="60"/>
-      <c r="C54" s="61"/>
-      <c r="D54" s="61"/>
-      <c r="E54" s="61"/>
-      <c r="F54" s="61"/>
-      <c r="G54" s="62"/>
-    </row>
-    <row r="55" spans="1:10" s="117" customFormat="1">
+      <c r="B54" s="58"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="60"/>
+    </row>
+    <row r="55" spans="1:10" s="115" customFormat="1">
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
       <c r="D55" s="16"/>
@@ -3229,121 +3365,121 @@
         <v>5</v>
       </c>
       <c r="B56" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="B57" s="95"/>
+      <c r="C57" s="96"/>
+      <c r="D57" s="96"/>
+      <c r="E57" s="96"/>
+      <c r="F57" s="97"/>
+      <c r="I57" s="140" t="s">
+        <v>32</v>
+      </c>
+      <c r="J57" s="140" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="B58" s="98"/>
+      <c r="C58" s="84" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="B57" s="97"/>
-      <c r="C57" s="98"/>
-      <c r="D57" s="98"/>
-      <c r="E57" s="98"/>
-      <c r="F57" s="99"/>
-      <c r="I57" s="151" t="s">
-        <v>32</v>
-      </c>
-      <c r="J57" s="151" t="s">
+      <c r="D58" s="84" t="s">
+        <v>152</v>
+      </c>
+      <c r="E58" s="84" t="s">
+        <v>149</v>
+      </c>
+      <c r="F58" s="99"/>
+      <c r="I58" s="140" t="s">
+        <v>33</v>
+      </c>
+      <c r="J58" s="140" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
-      <c r="B58" s="100"/>
-      <c r="C58" s="86" t="s">
-        <v>152</v>
-      </c>
-      <c r="D58" s="86" t="s">
-        <v>153</v>
-      </c>
-      <c r="E58" s="86" t="s">
-        <v>150</v>
-      </c>
-      <c r="F58" s="101"/>
-      <c r="I58" s="151" t="s">
-        <v>33</v>
-      </c>
-      <c r="J58" s="151" t="s">
-        <v>36</v>
-      </c>
-    </row>
     <row r="59" spans="1:10">
-      <c r="B59" s="100"/>
-      <c r="C59" s="102"/>
-      <c r="D59" s="102"/>
-      <c r="E59" s="102"/>
-      <c r="F59" s="101"/>
+      <c r="B59" s="98"/>
+      <c r="C59" s="100"/>
+      <c r="D59" s="100"/>
+      <c r="E59" s="100"/>
+      <c r="F59" s="99"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="B60" s="100"/>
-      <c r="C60" s="87" t="s">
+      <c r="B60" s="98"/>
+      <c r="C60" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="D60" s="87" t="s">
+      <c r="D60" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="E60" s="87" t="s">
+      <c r="E60" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="F60" s="101"/>
+      <c r="F60" s="99"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="B61" s="100"/>
-      <c r="C61" s="88">
+      <c r="B61" s="98"/>
+      <c r="C61" s="86">
         <v>1</v>
       </c>
-      <c r="D61" s="89" t="s">
+      <c r="D61" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="E61" s="90" t="s">
+      <c r="E61" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="F61" s="101"/>
+      <c r="F61" s="99"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="B62" s="100"/>
-      <c r="C62" s="91">
+      <c r="B62" s="98"/>
+      <c r="C62" s="89">
         <v>2</v>
       </c>
-      <c r="D62" s="92" t="s">
+      <c r="D62" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="E62" s="93" t="s">
+      <c r="E62" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="F62" s="101"/>
+      <c r="F62" s="99"/>
     </row>
     <row r="63" spans="1:10">
-      <c r="B63" s="100"/>
-      <c r="C63" s="91">
+      <c r="B63" s="98"/>
+      <c r="C63" s="89">
         <v>3</v>
       </c>
-      <c r="D63" s="92" t="s">
+      <c r="D63" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="E63" s="93" t="s">
+      <c r="E63" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="F63" s="101"/>
+      <c r="F63" s="99"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="B64" s="100"/>
-      <c r="C64" s="94">
+      <c r="B64" s="98"/>
+      <c r="C64" s="92">
         <v>4</v>
       </c>
-      <c r="D64" s="95" t="s">
+      <c r="D64" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="E64" s="96" t="s">
+      <c r="E64" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="F64" s="101"/>
+      <c r="F64" s="99"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="B65" s="103"/>
-      <c r="C65" s="104"/>
-      <c r="D65" s="104"/>
-      <c r="E65" s="104"/>
-      <c r="F65" s="105"/>
-    </row>
-    <row r="66" spans="1:8" s="117" customFormat="1">
+      <c r="B65" s="101"/>
+      <c r="C65" s="102"/>
+      <c r="D65" s="102"/>
+      <c r="E65" s="102"/>
+      <c r="F65" s="103"/>
+    </row>
+    <row r="66" spans="1:8" s="115" customFormat="1">
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
       <c r="D66" s="16"/>
@@ -3359,72 +3495,72 @@
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="B69" s="108"/>
-      <c r="C69" s="109"/>
-      <c r="D69" s="109"/>
-      <c r="E69" s="110"/>
+      <c r="B69" s="106"/>
+      <c r="C69" s="107"/>
+      <c r="D69" s="107"/>
+      <c r="E69" s="108"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="B70" s="111"/>
-      <c r="C70" s="112" t="s">
+      <c r="B70" s="109"/>
+      <c r="C70" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="D70" s="106" t="s">
+      <c r="D70" s="104" t="s">
+        <v>153</v>
+      </c>
+      <c r="E70" s="111"/>
+      <c r="G70" s="140" t="s">
+        <v>32</v>
+      </c>
+      <c r="H70" s="140" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="B71" s="109"/>
+      <c r="C71" s="110" t="s">
         <v>154</v>
       </c>
-      <c r="E70" s="113"/>
-      <c r="G70" s="151" t="s">
-        <v>32</v>
-      </c>
-      <c r="H70" s="151" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="B71" s="111"/>
-      <c r="C71" s="112" t="s">
+      <c r="D71" s="105">
+        <v>43040</v>
+      </c>
+      <c r="E71" s="111"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="B72" s="109"/>
+      <c r="C72" s="110" t="s">
         <v>155</v>
       </c>
-      <c r="D71" s="107">
-        <v>43040</v>
-      </c>
-      <c r="E71" s="113"/>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="B72" s="111"/>
-      <c r="C72" s="112" t="s">
+      <c r="D72" s="105">
+        <v>43405</v>
+      </c>
+      <c r="E72" s="111"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="B73" s="109"/>
+      <c r="C73" s="110"/>
+      <c r="D73" s="110"/>
+      <c r="E73" s="111"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="B74" s="109"/>
+      <c r="C74" s="110"/>
+      <c r="D74" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="D72" s="107">
-        <v>43405</v>
-      </c>
-      <c r="E72" s="113"/>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="B73" s="111"/>
-      <c r="C73" s="112"/>
-      <c r="D73" s="112"/>
-      <c r="E73" s="113"/>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="B74" s="111"/>
-      <c r="C74" s="112"/>
-      <c r="D74" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="E74" s="113"/>
+      <c r="E74" s="111"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="B75" s="111"/>
-      <c r="C75" s="112"/>
-      <c r="D75" s="112"/>
-      <c r="E75" s="113"/>
+      <c r="B75" s="109"/>
+      <c r="C75" s="110"/>
+      <c r="D75" s="110"/>
+      <c r="E75" s="111"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="B76" s="114"/>
-      <c r="C76" s="115"/>
-      <c r="D76" s="115"/>
-      <c r="E76" s="116"/>
+      <c r="B76" s="112"/>
+      <c r="C76" s="113"/>
+      <c r="D76" s="113"/>
+      <c r="E76" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3442,7 +3578,7 @@
   <dimension ref="C5:I55"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3453,82 +3589,82 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:9">
-      <c r="C5" s="47"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="49"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="47"/>
     </row>
     <row r="6" spans="3:9">
-      <c r="C6" s="50"/>
-      <c r="D6" s="143" t="s">
+      <c r="C6" s="48"/>
+      <c r="D6" s="154" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="154"/>
+      <c r="F6" s="51"/>
+    </row>
+    <row r="7" spans="3:9">
+      <c r="C7" s="48"/>
+      <c r="D7" s="154" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="154"/>
+      <c r="F7" s="51"/>
+    </row>
+    <row r="8" spans="3:9">
+      <c r="C8" s="48"/>
+      <c r="D8" s="154" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="143"/>
-      <c r="F6" s="53"/>
-    </row>
-    <row r="7" spans="3:9">
-      <c r="C7" s="50"/>
-      <c r="D7" s="143" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="143"/>
-      <c r="F7" s="53"/>
-    </row>
-    <row r="8" spans="3:9">
-      <c r="C8" s="50"/>
-      <c r="D8" s="143" t="s">
-        <v>162</v>
-      </c>
-      <c r="E8" s="143"/>
-      <c r="F8" s="53"/>
+      <c r="E8" s="154"/>
+      <c r="F8" s="51"/>
     </row>
     <row r="9" spans="3:9">
-      <c r="C9" s="50"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="53"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="51"/>
     </row>
     <row r="10" spans="3:9">
-      <c r="C10" s="50"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="53"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="51"/>
     </row>
     <row r="11" spans="3:9">
-      <c r="C11" s="50"/>
-      <c r="D11" s="51" t="s">
+      <c r="C11" s="48"/>
+      <c r="D11" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="E11" s="116"/>
+      <c r="F11" s="51"/>
+    </row>
+    <row r="12" spans="3:9">
+      <c r="C12" s="48"/>
+      <c r="D12" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="E11" s="118"/>
-      <c r="F11" s="53"/>
-    </row>
-    <row r="12" spans="3:9">
-      <c r="C12" s="50"/>
-      <c r="D12" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="E12" s="118"/>
-      <c r="F12" s="53"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="51"/>
     </row>
     <row r="13" spans="3:9">
-      <c r="C13" s="50"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="53"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="51"/>
     </row>
     <row r="14" spans="3:9">
-      <c r="C14" s="50"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="53"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="51"/>
     </row>
     <row r="15" spans="3:9">
-      <c r="C15" s="50"/>
-      <c r="D15" s="125" t="s">
-        <v>175</v>
-      </c>
-      <c r="E15" s="126"/>
-      <c r="F15" s="53"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="159" t="s">
+        <v>174</v>
+      </c>
+      <c r="E15" s="160"/>
+      <c r="F15" s="51"/>
       <c r="H15" t="s">
         <v>33</v>
       </c>
@@ -3537,31 +3673,31 @@
       </c>
     </row>
     <row r="16" spans="3:9">
-      <c r="C16" s="50"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="53"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="51"/>
     </row>
     <row r="17" spans="3:9">
-      <c r="C17" s="60"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="62"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="60"/>
     </row>
     <row r="18" spans="3:9">
       <c r="H18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="3:9">
-      <c r="C19" s="146" t="s">
-        <v>172</v>
-      </c>
-      <c r="D19" s="147"/>
-      <c r="E19" s="144" t="s">
-        <v>176</v>
-      </c>
-      <c r="F19" s="145"/>
+      <c r="C19" s="155" t="s">
+        <v>171</v>
+      </c>
+      <c r="D19" s="156"/>
+      <c r="E19" s="157" t="s">
+        <v>175</v>
+      </c>
+      <c r="F19" s="158"/>
       <c r="H19" t="s">
         <v>32</v>
       </c>
@@ -3570,24 +3706,24 @@
       </c>
     </row>
     <row r="20" spans="3:9">
-      <c r="C20" s="127"/>
-      <c r="D20" s="128"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="129"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="125"/>
     </row>
     <row r="21" spans="3:9">
-      <c r="C21" s="130"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="132"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="128"/>
     </row>
     <row r="22" spans="3:9">
-      <c r="C22" s="130"/>
-      <c r="D22" s="131" t="s">
+      <c r="C22" s="126"/>
+      <c r="D22" s="127" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="118"/>
-      <c r="F22" s="132"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="128"/>
       <c r="H22" t="s">
         <v>32</v>
       </c>
@@ -3596,226 +3732,226 @@
       </c>
     </row>
     <row r="23" spans="3:9">
-      <c r="C23" s="130"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="132"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="127"/>
+      <c r="F23" s="128"/>
     </row>
     <row r="24" spans="3:9">
-      <c r="C24" s="130"/>
-      <c r="D24" s="131" t="s">
+      <c r="C24" s="126"/>
+      <c r="D24" s="127" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="133"/>
-      <c r="F24" s="132"/>
+      <c r="E24" s="129"/>
+      <c r="F24" s="128"/>
     </row>
     <row r="25" spans="3:9">
-      <c r="C25" s="130"/>
-      <c r="D25" s="131"/>
-      <c r="E25" s="131"/>
-      <c r="F25" s="132"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="127"/>
+      <c r="F25" s="128"/>
     </row>
     <row r="26" spans="3:9">
-      <c r="C26" s="130"/>
-      <c r="D26" s="131" t="s">
+      <c r="C26" s="126"/>
+      <c r="D26" s="127" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="133"/>
-      <c r="F26" s="132"/>
+      <c r="E26" s="129"/>
+      <c r="F26" s="128"/>
     </row>
     <row r="27" spans="3:9">
-      <c r="C27" s="130"/>
-      <c r="D27" s="131"/>
-      <c r="E27" s="131"/>
-      <c r="F27" s="132"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="127"/>
+      <c r="F27" s="128"/>
     </row>
     <row r="28" spans="3:9">
-      <c r="C28" s="130"/>
-      <c r="D28" s="131" t="s">
+      <c r="C28" s="126"/>
+      <c r="D28" s="127" t="s">
         <v>80</v>
       </c>
-      <c r="E28" s="118"/>
-      <c r="F28" s="132"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="128"/>
     </row>
     <row r="29" spans="3:9">
-      <c r="C29" s="130"/>
-      <c r="D29" s="131"/>
-      <c r="E29" s="131"/>
-      <c r="F29" s="132"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="128"/>
     </row>
     <row r="30" spans="3:9">
-      <c r="C30" s="130"/>
-      <c r="D30" s="131"/>
-      <c r="E30" s="131"/>
-      <c r="F30" s="132"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="128"/>
     </row>
     <row r="31" spans="3:9">
-      <c r="C31" s="130"/>
-      <c r="D31" s="131"/>
-      <c r="E31" s="131"/>
-      <c r="F31" s="132"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="128"/>
     </row>
     <row r="32" spans="3:9">
-      <c r="C32" s="130"/>
-      <c r="D32" s="131"/>
-      <c r="E32" s="131"/>
-      <c r="F32" s="132"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="128"/>
       <c r="H32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="3:6">
-      <c r="C33" s="134"/>
-      <c r="D33" s="135"/>
-      <c r="E33" s="135"/>
-      <c r="F33" s="136"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="131"/>
+      <c r="E33" s="131"/>
+      <c r="F33" s="132"/>
     </row>
     <row r="35" spans="3:6">
       <c r="C35" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6">
+      <c r="C36" s="161" t="s">
+        <v>171</v>
+      </c>
+      <c r="D36" s="162"/>
+      <c r="E36" s="155" t="s">
+        <v>175</v>
+      </c>
+      <c r="F36" s="156"/>
+    </row>
+    <row r="37" spans="3:6">
+      <c r="C37" s="126"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="127"/>
+      <c r="F37" s="128"/>
+    </row>
+    <row r="38" spans="3:6">
+      <c r="C38" s="134"/>
+      <c r="D38" s="135" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="36" spans="3:6">
-      <c r="C36" s="148" t="s">
+      <c r="E38" s="135"/>
+      <c r="F38" s="136"/>
+    </row>
+    <row r="39" spans="3:6">
+      <c r="C39" s="134"/>
+      <c r="D39" s="135" t="s">
+        <v>169</v>
+      </c>
+      <c r="E39" s="135"/>
+      <c r="F39" s="136"/>
+    </row>
+    <row r="40" spans="3:6">
+      <c r="C40" s="134"/>
+      <c r="D40" s="135" t="s">
+        <v>169</v>
+      </c>
+      <c r="E40" s="135"/>
+      <c r="F40" s="136"/>
+    </row>
+    <row r="41" spans="3:6">
+      <c r="C41" s="134"/>
+      <c r="D41" s="135" t="s">
+        <v>169</v>
+      </c>
+      <c r="E41" s="135"/>
+      <c r="F41" s="136"/>
+    </row>
+    <row r="42" spans="3:6">
+      <c r="C42" s="134"/>
+      <c r="D42" s="135" t="s">
+        <v>169</v>
+      </c>
+      <c r="E42" s="135"/>
+      <c r="F42" s="136"/>
+    </row>
+    <row r="43" spans="3:6">
+      <c r="C43" s="134"/>
+      <c r="D43" s="135" t="s">
+        <v>169</v>
+      </c>
+      <c r="E43" s="135"/>
+      <c r="F43" s="136"/>
+    </row>
+    <row r="44" spans="3:6">
+      <c r="C44" s="134"/>
+      <c r="D44" s="135" t="s">
+        <v>169</v>
+      </c>
+      <c r="E44" s="135"/>
+      <c r="F44" s="136"/>
+    </row>
+    <row r="45" spans="3:6">
+      <c r="C45" s="134"/>
+      <c r="D45" s="135" t="s">
+        <v>169</v>
+      </c>
+      <c r="E45" s="135"/>
+      <c r="F45" s="136"/>
+    </row>
+    <row r="46" spans="3:6">
+      <c r="C46" s="126"/>
+      <c r="D46" s="127"/>
+      <c r="E46" s="127"/>
+      <c r="F46" s="128"/>
+    </row>
+    <row r="47" spans="3:6">
+      <c r="C47" s="126"/>
+      <c r="D47" s="127"/>
+      <c r="E47" s="127"/>
+      <c r="F47" s="128"/>
+    </row>
+    <row r="48" spans="3:6">
+      <c r="C48" s="126"/>
+      <c r="D48" s="133" t="s">
         <v>172</v>
       </c>
-      <c r="D36" s="149"/>
-      <c r="E36" s="146" t="s">
-        <v>176</v>
-      </c>
-      <c r="F36" s="147"/>
-    </row>
-    <row r="37" spans="3:6">
-      <c r="C37" s="130"/>
-      <c r="D37" s="131"/>
-      <c r="E37" s="131"/>
-      <c r="F37" s="132"/>
-    </row>
-    <row r="38" spans="3:6">
-      <c r="C38" s="138"/>
-      <c r="D38" s="139" t="s">
+      <c r="E48" s="129"/>
+      <c r="F48" s="128"/>
+    </row>
+    <row r="49" spans="3:9">
+      <c r="C49" s="126"/>
+      <c r="D49" s="133" t="s">
+        <v>173</v>
+      </c>
+      <c r="E49" s="129"/>
+      <c r="F49" s="128"/>
+    </row>
+    <row r="50" spans="3:9">
+      <c r="C50" s="126"/>
+      <c r="D50" s="133" t="s">
+        <v>139</v>
+      </c>
+      <c r="E50" s="137" t="s">
+        <v>76</v>
+      </c>
+      <c r="F50" s="128"/>
+    </row>
+    <row r="51" spans="3:9">
+      <c r="C51" s="126"/>
+      <c r="D51" s="133" t="s">
+        <v>167</v>
+      </c>
+      <c r="E51" s="138">
+        <v>9448373533</v>
+      </c>
+      <c r="F51" s="128"/>
+    </row>
+    <row r="52" spans="3:9">
+      <c r="C52" s="126"/>
+      <c r="D52" s="127"/>
+      <c r="E52" s="127"/>
+      <c r="F52" s="128"/>
+    </row>
+    <row r="53" spans="3:9">
+      <c r="C53" s="126"/>
+      <c r="D53" s="159" t="s">
         <v>170</v>
       </c>
-      <c r="E38" s="139"/>
-      <c r="F38" s="140"/>
-    </row>
-    <row r="39" spans="3:6">
-      <c r="C39" s="138"/>
-      <c r="D39" s="139" t="s">
-        <v>170</v>
-      </c>
-      <c r="E39" s="139"/>
-      <c r="F39" s="140"/>
-    </row>
-    <row r="40" spans="3:6">
-      <c r="C40" s="138"/>
-      <c r="D40" s="139" t="s">
-        <v>170</v>
-      </c>
-      <c r="E40" s="139"/>
-      <c r="F40" s="140"/>
-    </row>
-    <row r="41" spans="3:6">
-      <c r="C41" s="138"/>
-      <c r="D41" s="139" t="s">
-        <v>170</v>
-      </c>
-      <c r="E41" s="139"/>
-      <c r="F41" s="140"/>
-    </row>
-    <row r="42" spans="3:6">
-      <c r="C42" s="138"/>
-      <c r="D42" s="139" t="s">
-        <v>170</v>
-      </c>
-      <c r="E42" s="139"/>
-      <c r="F42" s="140"/>
-    </row>
-    <row r="43" spans="3:6">
-      <c r="C43" s="138"/>
-      <c r="D43" s="139" t="s">
-        <v>170</v>
-      </c>
-      <c r="E43" s="139"/>
-      <c r="F43" s="140"/>
-    </row>
-    <row r="44" spans="3:6">
-      <c r="C44" s="138"/>
-      <c r="D44" s="139" t="s">
-        <v>170</v>
-      </c>
-      <c r="E44" s="139"/>
-      <c r="F44" s="140"/>
-    </row>
-    <row r="45" spans="3:6">
-      <c r="C45" s="138"/>
-      <c r="D45" s="139" t="s">
-        <v>170</v>
-      </c>
-      <c r="E45" s="139"/>
-      <c r="F45" s="140"/>
-    </row>
-    <row r="46" spans="3:6">
-      <c r="C46" s="130"/>
-      <c r="D46" s="131"/>
-      <c r="E46" s="131"/>
-      <c r="F46" s="132"/>
-    </row>
-    <row r="47" spans="3:6">
-      <c r="C47" s="130"/>
-      <c r="D47" s="131"/>
-      <c r="E47" s="131"/>
-      <c r="F47" s="132"/>
-    </row>
-    <row r="48" spans="3:6">
-      <c r="C48" s="130"/>
-      <c r="D48" s="137" t="s">
-        <v>173</v>
-      </c>
-      <c r="E48" s="133"/>
-      <c r="F48" s="132"/>
-    </row>
-    <row r="49" spans="3:9">
-      <c r="C49" s="130"/>
-      <c r="D49" s="137" t="s">
-        <v>174</v>
-      </c>
-      <c r="E49" s="133"/>
-      <c r="F49" s="132"/>
-    </row>
-    <row r="50" spans="3:9">
-      <c r="C50" s="130"/>
-      <c r="D50" s="137" t="s">
-        <v>140</v>
-      </c>
-      <c r="E50" s="141" t="s">
-        <v>76</v>
-      </c>
-      <c r="F50" s="132"/>
-    </row>
-    <row r="51" spans="3:9">
-      <c r="C51" s="130"/>
-      <c r="D51" s="137" t="s">
-        <v>168</v>
-      </c>
-      <c r="E51" s="142">
-        <v>9448373533</v>
-      </c>
-      <c r="F51" s="132"/>
-    </row>
-    <row r="52" spans="3:9">
-      <c r="C52" s="130"/>
-      <c r="D52" s="131"/>
-      <c r="E52" s="131"/>
-      <c r="F52" s="132"/>
-    </row>
-    <row r="53" spans="3:9">
-      <c r="C53" s="130"/>
-      <c r="D53" s="125" t="s">
-        <v>171</v>
-      </c>
-      <c r="E53" s="126"/>
-      <c r="F53" s="132"/>
+      <c r="E53" s="160"/>
+      <c r="F53" s="128"/>
       <c r="H53" t="s">
         <v>33</v>
       </c>
@@ -3824,28 +3960,28 @@
       </c>
     </row>
     <row r="54" spans="3:9">
-      <c r="C54" s="130"/>
-      <c r="D54" s="131"/>
-      <c r="E54" s="131"/>
-      <c r="F54" s="132"/>
+      <c r="C54" s="126"/>
+      <c r="D54" s="127"/>
+      <c r="E54" s="127"/>
+      <c r="F54" s="128"/>
     </row>
     <row r="55" spans="3:9">
-      <c r="C55" s="134"/>
-      <c r="D55" s="135"/>
-      <c r="E55" s="135"/>
-      <c r="F55" s="136"/>
+      <c r="C55" s="130"/>
+      <c r="D55" s="131"/>
+      <c r="E55" s="131"/>
+      <c r="F55" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E19:F19"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3864,35 +4000,35 @@
   <sheetData>
     <row r="2" spans="2:8">
       <c r="B2" s="23"/>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="34">
+      <c r="E2" s="32">
         <v>40</v>
       </c>
-      <c r="F2" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="F2" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="36"/>
+      <c r="F4" s="34"/>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="19">
@@ -3907,11 +4043,11 @@
       <c r="E5" s="21">
         <v>10</v>
       </c>
-      <c r="F5" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>147</v>
+      <c r="F5" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="2:8">
@@ -3927,11 +4063,11 @@
       <c r="E6" s="24">
         <v>20</v>
       </c>
-      <c r="F6" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>147</v>
+      <c r="F6" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="2:8">
@@ -3947,11 +4083,11 @@
       <c r="E7" s="24">
         <v>30</v>
       </c>
-      <c r="F7" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>147</v>
+      <c r="F7" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="2:8">
@@ -3967,122 +4103,122 @@
       <c r="E8" s="28">
         <v>40</v>
       </c>
-      <c r="F8" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>147</v>
+      <c r="F8" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="2:8">
-      <c r="C14" s="47"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="49"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="47"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="C15" s="50"/>
-      <c r="D15" s="121" t="s">
+      <c r="C15" s="48"/>
+      <c r="D15" s="119" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="120" t="s">
         <v>166</v>
       </c>
-      <c r="E15" s="122" t="s">
+      <c r="F15" s="51"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="C16" s="48"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="51"/>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17" s="48"/>
+      <c r="D17" s="119" t="s">
+        <v>162</v>
+      </c>
+      <c r="E17" s="120">
+        <v>5</v>
+      </c>
+      <c r="F17" s="51"/>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" s="48"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="51"/>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" s="48"/>
+      <c r="D19" s="119" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" s="120">
+        <v>501.03</v>
+      </c>
+      <c r="F19" s="51"/>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="51"/>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="C21" s="48"/>
+      <c r="D21" s="118" t="s">
         <v>167</v>
       </c>
-      <c r="F15" s="53"/>
-    </row>
-    <row r="16" spans="2:8">
-      <c r="C16" s="50"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="53"/>
-    </row>
-    <row r="17" spans="3:6">
-      <c r="C17" s="50"/>
-      <c r="D17" s="121" t="s">
-        <v>163</v>
-      </c>
-      <c r="E17" s="122">
-        <v>5</v>
-      </c>
-      <c r="F17" s="53"/>
-    </row>
-    <row r="18" spans="3:6">
-      <c r="C18" s="50"/>
-      <c r="D18" s="119"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="53"/>
-    </row>
-    <row r="19" spans="3:6">
-      <c r="C19" s="50"/>
-      <c r="D19" s="121" t="s">
+      <c r="E21" s="122">
+        <v>12345</v>
+      </c>
+      <c r="F21" s="51"/>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22" s="48"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="51"/>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="C23" s="48"/>
+      <c r="D23" s="159" t="s">
         <v>164</v>
       </c>
-      <c r="E19" s="122">
-        <v>501.03</v>
-      </c>
-      <c r="F19" s="53"/>
-    </row>
-    <row r="20" spans="3:6">
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="53"/>
-    </row>
-    <row r="21" spans="3:6">
-      <c r="C21" s="50"/>
-      <c r="D21" s="120" t="s">
-        <v>168</v>
-      </c>
-      <c r="E21" s="124">
-        <v>12345</v>
-      </c>
-      <c r="F21" s="53"/>
-    </row>
-    <row r="22" spans="3:6">
-      <c r="C22" s="50"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="53"/>
-    </row>
-    <row r="23" spans="3:6">
-      <c r="C23" s="50"/>
-      <c r="D23" s="125" t="s">
-        <v>165</v>
-      </c>
-      <c r="E23" s="126"/>
-      <c r="F23" s="53"/>
+      <c r="E23" s="160"/>
+      <c r="F23" s="51"/>
     </row>
     <row r="24" spans="3:6">
-      <c r="C24" s="50"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="53"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="51"/>
     </row>
     <row r="25" spans="3:6">
-      <c r="C25" s="50"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="53"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="51"/>
     </row>
     <row r="26" spans="3:6">
-      <c r="C26" s="50"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="53"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="51"/>
     </row>
     <row r="27" spans="3:6">
-      <c r="C27" s="50"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="53"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="51"/>
     </row>
     <row r="28" spans="3:6">
-      <c r="C28" s="60"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="62"/>
-    </row>
-    <row r="29" spans="3:6" s="117" customFormat="1">
+      <c r="C28" s="58"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="60"/>
+    </row>
+    <row r="29" spans="3:6" s="115" customFormat="1">
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
@@ -4094,4 +4230,17 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Design.xlsx
+++ b/Design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Architecture" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="244">
   <si>
     <t>sales_person</t>
   </si>
@@ -256,9 +256,6 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Product</t>
-  </si>
-  <si>
     <t>Perfume</t>
   </si>
   <si>
@@ -442,9 +439,6 @@
     <t>Payment Mode</t>
   </si>
   <si>
-    <t>Total ($)</t>
-  </si>
-  <si>
     <t>Search</t>
   </si>
   <si>
@@ -463,24 +457,9 @@
     <t>Delete Product</t>
   </si>
   <si>
-    <t>Download Products</t>
-  </si>
-  <si>
-    <t>Upload Updated Products</t>
-  </si>
-  <si>
-    <t>Refresh</t>
-  </si>
-  <si>
     <t>Salesman Master</t>
   </si>
   <si>
-    <t>Download Salesman</t>
-  </si>
-  <si>
-    <t>Upload Updated Salseman</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -535,9 +514,6 @@
     <t>Place Order</t>
   </si>
   <si>
-    <t>Product add</t>
-  </si>
-  <si>
     <t>Total Amount</t>
   </si>
   <si>
@@ -647,13 +623,142 @@
   </si>
   <si>
     <t xml:space="preserve">INSERT INTO items (invoice_id,product_category,product_name,product_price,quantity,amount,tax) VALUES (6,'Floral', 'Daisy by Marc Jacobs1',2.541,12,24,0.02); </t>
+  </si>
+  <si>
+    <t>cutomer_name</t>
+  </si>
+  <si>
+    <t>ABC Corporation</t>
+  </si>
+  <si>
+    <t>cutomer_vat_no</t>
+  </si>
+  <si>
+    <t>A123</t>
+  </si>
+  <si>
+    <t>Sub Total ($)</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Vat</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>product_name</t>
+  </si>
+  <si>
+    <t>product_code</t>
+  </si>
+  <si>
+    <t>discount</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>name_arabic</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>product_type</t>
+  </si>
+  <si>
+    <t>coo</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>a.jpg</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>stock_master</t>
+  </si>
+  <si>
+    <t>stock_entry_date</t>
+  </si>
+  <si>
+    <t>product_category</t>
+  </si>
+  <si>
+    <t>product_brand</t>
+  </si>
+  <si>
+    <t>product_coo</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>bb</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>View / Add / Update / Delete</t>
+  </si>
+  <si>
+    <t>View / Print pdf</t>
+  </si>
+  <si>
+    <t>View / Download PDF</t>
+  </si>
+  <si>
+    <t>Item  add</t>
+  </si>
+  <si>
+    <t>Item add</t>
+  </si>
+  <si>
+    <t>Product_name</t>
+  </si>
+  <si>
+    <t>Browse Image</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>PDF Print</t>
+  </si>
+  <si>
+    <t>View / Add / Delete</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -747,6 +852,14 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1008,7 +1121,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1129,18 +1242,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1159,12 +1263,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1223,6 +1321,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1230,6 +1331,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1244,17 +1354,44 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1615,7 +1752,7 @@
         <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D1" t="s">
         <v>60</v>
@@ -1684,26 +1821,26 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B9" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>158</v>
-      </c>
-      <c r="B10" s="151" t="s">
-        <v>190</v>
+        <v>151</v>
+      </c>
+      <c r="B10" s="146" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -1773,16 +1910,16 @@
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="11"/>
-      <c r="I2" s="141" t="s">
+      <c r="I2" s="136" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="141" t="s">
+      <c r="J2" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="141" t="s">
+      <c r="K2" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="141" t="s">
+      <c r="L2" s="136" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1798,16 +1935,16 @@
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="13"/>
-      <c r="I3" s="140" t="s">
+      <c r="I3" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="140" t="s">
+      <c r="J3" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="141" t="s">
+      <c r="K3" s="136" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="141" t="s">
+      <c r="L3" s="136" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1840,16 +1977,16 @@
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="11"/>
-      <c r="I5" s="140" t="s">
+      <c r="I5" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="140" t="s">
+      <c r="J5" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="141" t="s">
+      <c r="K5" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="141" t="s">
+      <c r="L5" s="136" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1865,16 +2002,16 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="13"/>
-      <c r="I6" s="140" t="s">
+      <c r="I6" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="140" t="s">
+      <c r="J6" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="141" t="s">
+      <c r="K6" s="136" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="141" t="s">
+      <c r="L6" s="136" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1933,17 +2070,17 @@
       <c r="H10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="139" t="s">
+      <c r="I10" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="139" t="s">
+      <c r="J10" s="134" t="s">
         <v>42</v>
       </c>
       <c r="K10" t="s">
         <v>32</v>
       </c>
       <c r="L10" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="2:12">
@@ -1958,10 +2095,10 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="140" t="s">
+      <c r="I11" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="140" t="s">
+      <c r="J11" s="135" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1977,10 +2114,10 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="13"/>
-      <c r="I12" s="141" t="s">
+      <c r="I12" s="136" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="141" t="s">
+      <c r="J12" s="136" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2085,10 +2222,10 @@
         <v>2</v>
       </c>
       <c r="H20" s="18"/>
-      <c r="I20" s="141" t="s">
+      <c r="I20" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="J20" s="141" t="s">
+      <c r="J20" s="136" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2104,10 +2241,10 @@
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="13"/>
-      <c r="I21" s="141" t="s">
+      <c r="I21" s="136" t="s">
         <v>43</v>
       </c>
-      <c r="J21" s="141" t="s">
+      <c r="J21" s="136" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2219,10 +2356,10 @@
       <c r="D30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="152"/>
-      <c r="F30" s="152"/>
-      <c r="G30" s="152"/>
-      <c r="H30" s="153"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="149"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="3"/>
@@ -2236,10 +2373,10 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="5"/>
-      <c r="I31" s="140" t="s">
+      <c r="I31" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="J31" s="140" t="s">
+      <c r="J31" s="135" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2269,7 +2406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
@@ -2280,422 +2417,422 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2705,237 +2842,265 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:R83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="B2" s="45"/>
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="E2" s="46"/>
+      <c r="F2" s="47"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" s="48"/>
-      <c r="C3" s="154" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" s="154"/>
-      <c r="E3" s="51"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="C3" s="150" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="150"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="51"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="B4" s="48"/>
-      <c r="C4" s="154" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="154"/>
-      <c r="E4" s="51"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="C4" s="150" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="150"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="51"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="B5" s="48"/>
-      <c r="C5" s="154" t="s">
-        <v>161</v>
-      </c>
-      <c r="D5" s="154"/>
-      <c r="E5" s="51"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="C5" s="150" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="150"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="51"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" s="48"/>
       <c r="C6" s="49"/>
       <c r="D6" s="49"/>
-      <c r="E6" s="51"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="E6" s="49"/>
+      <c r="F6" s="51"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="B7" s="48"/>
       <c r="C7" s="49"/>
       <c r="D7" s="49"/>
-      <c r="E7" s="51"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="E7" s="49"/>
+      <c r="F7" s="51"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="B8" s="48"/>
       <c r="C8" s="49" t="s">
-        <v>182</v>
-      </c>
-      <c r="D8" s="116"/>
-      <c r="E8" s="51"/>
-    </row>
-    <row r="9" spans="1:8">
+        <v>174</v>
+      </c>
+      <c r="D8" s="111"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="51"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" s="48"/>
       <c r="C9" s="49" t="s">
-        <v>159</v>
-      </c>
-      <c r="D9" s="116"/>
-      <c r="E9" s="51"/>
-    </row>
-    <row r="10" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="D9" s="111"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="51"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10" s="48"/>
       <c r="C10" s="49"/>
       <c r="D10" s="49"/>
-      <c r="E10" s="51"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="E10" s="49"/>
+      <c r="F10" s="51"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="B11" s="48"/>
       <c r="C11" s="49"/>
-      <c r="D11" s="142" t="s">
-        <v>158</v>
-      </c>
-      <c r="E11" s="51"/>
-      <c r="G11" s="140" t="s">
+      <c r="D11" s="137" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="49"/>
+      <c r="F11" s="51"/>
+      <c r="H11" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="140" t="s">
+      <c r="I11" s="135" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="B12" s="48"/>
       <c r="C12" s="49"/>
       <c r="D12" s="49"/>
-      <c r="E12" s="51"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="E12" s="49"/>
+      <c r="F12" s="51"/>
+    </row>
+    <row r="13" spans="1:9">
       <c r="B13" s="58"/>
       <c r="C13" s="59"/>
       <c r="D13" s="59"/>
-      <c r="E13" s="60"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="E13" s="59"/>
+      <c r="F13" s="60"/>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="B17" s="143"/>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="B17" s="138"/>
       <c r="C17" s="36"/>
       <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" ht="21">
-      <c r="B18" s="146" t="s">
-        <v>181</v>
-      </c>
-      <c r="C18" s="148" t="s">
-        <v>183</v>
-      </c>
-      <c r="D18" s="149">
+      <c r="E17" s="37"/>
+      <c r="F17" s="38"/>
+    </row>
+    <row r="18" spans="1:11" ht="21">
+      <c r="B18" s="141" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="143" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" s="144">
         <v>24</v>
       </c>
-      <c r="E18" s="150"/>
-      <c r="G18" s="140" t="s">
+      <c r="E18" s="144"/>
+      <c r="F18" s="145"/>
+      <c r="H18" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="140" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="21">
-      <c r="B19" s="147" t="s">
-        <v>142</v>
-      </c>
-      <c r="C19" s="148"/>
-      <c r="D19" s="149"/>
-      <c r="E19" s="150"/>
-    </row>
-    <row r="20" spans="1:10" ht="21">
-      <c r="B20" s="147" t="s">
-        <v>143</v>
-      </c>
-      <c r="C20" s="148" t="s">
-        <v>184</v>
-      </c>
-      <c r="D20" s="149">
+      <c r="I18" s="135" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="21">
+      <c r="B19" s="142" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="143"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="145"/>
+    </row>
+    <row r="20" spans="1:11" ht="21">
+      <c r="B20" s="142" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="143" t="s">
+        <v>176</v>
+      </c>
+      <c r="D20" s="144">
         <v>123.5</v>
       </c>
-      <c r="E20" s="150"/>
-    </row>
-    <row r="21" spans="1:10" ht="21">
-      <c r="B21" s="147" t="s">
-        <v>150</v>
-      </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-    </row>
-    <row r="22" spans="1:10" ht="21">
-      <c r="B22" s="147" t="s">
+      <c r="E20" s="144"/>
+      <c r="F20" s="145"/>
+    </row>
+    <row r="21" spans="1:11" ht="21">
+      <c r="B21" s="142" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="143"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="145"/>
+    </row>
+    <row r="22" spans="1:11" ht="21">
+      <c r="B22" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="148" t="s">
-        <v>185</v>
-      </c>
-      <c r="D22" s="149">
+      <c r="C22" s="143" t="s">
+        <v>177</v>
+      </c>
+      <c r="D22" s="144">
         <v>5</v>
       </c>
-      <c r="E22" s="150"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="B23" s="147" t="s">
-        <v>180</v>
+      <c r="E22" s="144"/>
+      <c r="F22" s="145"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="B23" s="142" t="s">
+        <v>172</v>
       </c>
       <c r="C23" s="39"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="41"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="B24" s="144"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="41"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="B24" s="139"/>
       <c r="C24" s="39"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="41"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="B25" s="144"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="41"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="B25" s="139"/>
       <c r="C25" s="39"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="41"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="B26" s="145"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="41"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="B26" s="140"/>
       <c r="C26" s="42"/>
       <c r="D26" s="43"/>
-      <c r="E26" s="44"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="F27" s="139" t="s">
+      <c r="E26" s="43"/>
+      <c r="F26" s="44"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="G27" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="G27" s="139" t="s">
+      <c r="H27" s="134" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>140</v>
+      </c>
+      <c r="C28" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="B29" s="61"/>
       <c r="C29" s="62"/>
       <c r="D29" s="62"/>
@@ -2944,26 +3109,28 @@
       <c r="G29" s="62"/>
       <c r="H29" s="62"/>
       <c r="I29" s="62"/>
-      <c r="J29" s="63"/>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="J29" s="62"/>
+      <c r="K29" s="63"/>
+    </row>
+    <row r="30" spans="1:11">
       <c r="B30" s="64"/>
       <c r="C30" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="116"/>
+      <c r="D30" s="111"/>
       <c r="E30" s="65"/>
-      <c r="F30" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="G30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="29" t="s">
+        <v>139</v>
+      </c>
       <c r="H30" s="65"/>
-      <c r="I30" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" s="66"/>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="I30" s="65"/>
+      <c r="J30" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="K30" s="66"/>
+    </row>
+    <row r="31" spans="1:11">
       <c r="B31" s="64"/>
       <c r="C31" s="65"/>
       <c r="D31" s="65"/>
@@ -2972,9 +3139,10 @@
       <c r="G31" s="65"/>
       <c r="H31" s="65"/>
       <c r="I31" s="65"/>
-      <c r="J31" s="66"/>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="J31" s="65"/>
+      <c r="K31" s="66"/>
+    </row>
+    <row r="32" spans="1:11">
       <c r="B32" s="64"/>
       <c r="C32" s="65" t="s">
         <v>66</v>
@@ -2982,585 +3150,1055 @@
       <c r="D32" s="67">
         <v>1234</v>
       </c>
-      <c r="E32" s="65"/>
+      <c r="E32" s="67"/>
       <c r="F32" s="65"/>
-      <c r="G32" s="65" t="s">
+      <c r="G32" s="65"/>
+      <c r="H32" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="H32" s="68">
+      <c r="I32" s="68">
         <v>43534</v>
       </c>
-      <c r="I32" s="69">
+      <c r="J32" s="69">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J32" s="70"/>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32" s="70"/>
+    </row>
+    <row r="33" spans="2:11">
       <c r="B33" s="64"/>
       <c r="C33" s="65" t="s">
+        <v>201</v>
+      </c>
+      <c r="D33" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="E33" s="67"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="J33" s="65"/>
+      <c r="K33" s="66"/>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34" s="64"/>
+      <c r="C34" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="67">
+      <c r="D34" s="67">
         <v>9448373533</v>
       </c>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="H33" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="I33" s="65"/>
-      <c r="J33" s="66"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="B34" s="64"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
+      <c r="E34" s="67"/>
       <c r="F34" s="65"/>
       <c r="G34" s="65"/>
       <c r="H34" s="65"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="66"/>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="I34" s="67"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="66"/>
+    </row>
+    <row r="35" spans="2:11">
       <c r="B35" s="64"/>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="D35" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="E35" s="67"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="65"/>
+      <c r="K35" s="66"/>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36" s="64"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="66"/>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37" s="64"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="66"/>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38" s="64"/>
+      <c r="C38" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="29" t="s">
+      <c r="D38" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="29" t="s">
+      <c r="E38" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="F38" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="G38" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H38" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="K38" s="66"/>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39" s="64"/>
+      <c r="C39" s="71">
         <v>1</v>
       </c>
-      <c r="F35" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G35" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="I35" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="J35" s="66"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="B36" s="64"/>
-      <c r="C36" s="71">
+      <c r="D39" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="G39" s="72">
+        <v>10</v>
+      </c>
+      <c r="H39" s="72">
         <v>1</v>
       </c>
-      <c r="D36" s="72" t="s">
+      <c r="I39" s="72">
+        <f>G39*H39</f>
+        <v>10</v>
+      </c>
+      <c r="J39" s="73">
+        <f>0.05*I39</f>
+        <v>0.5</v>
+      </c>
+      <c r="K39" s="66"/>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40" s="64"/>
+      <c r="C40" s="71">
+        <v>2</v>
+      </c>
+      <c r="D40" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="G40" s="72">
+        <v>20</v>
+      </c>
+      <c r="H40" s="72">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I40" s="72">
+        <f>G40*H40</f>
+        <v>46</v>
+      </c>
+      <c r="J40" s="73">
+        <f>0.05*I40</f>
+        <v>2.3000000000000003</v>
+      </c>
+      <c r="K40" s="66"/>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41" s="64"/>
+      <c r="C41" s="71">
+        <v>3</v>
+      </c>
+      <c r="D41" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="F41" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="G41" s="72">
+        <v>30</v>
+      </c>
+      <c r="H41" s="72">
+        <v>4</v>
+      </c>
+      <c r="I41" s="72">
+        <f>G41*H41</f>
+        <v>120</v>
+      </c>
+      <c r="J41" s="73">
+        <f>0.05*I41</f>
+        <v>6</v>
+      </c>
+      <c r="K41" s="66"/>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" s="64"/>
+      <c r="C42" s="74">
+        <v>4</v>
+      </c>
+      <c r="D42" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="F42" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="G42" s="75">
+        <v>40</v>
+      </c>
+      <c r="H42" s="75">
+        <v>5</v>
+      </c>
+      <c r="I42" s="75">
+        <f>G42*H42</f>
+        <v>200</v>
+      </c>
+      <c r="J42" s="76">
+        <f>0.05*I42</f>
+        <v>10</v>
+      </c>
+      <c r="K42" s="66"/>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43" s="64"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="65"/>
+      <c r="J43" s="65"/>
+      <c r="K43" s="66"/>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44" s="64"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="I44" s="72">
+        <f>SUM(I39:I42)-SUM(J39:J42)</f>
+        <v>357.2</v>
+      </c>
+      <c r="J44" s="72"/>
+      <c r="K44" s="66"/>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" s="64"/>
+      <c r="C45" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="D45" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="E45" s="67"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="65" t="s">
+        <v>206</v>
+      </c>
+      <c r="I45" s="72">
+        <v>1.5</v>
+      </c>
+      <c r="J45" s="72"/>
+      <c r="K45" s="66"/>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46" s="64"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="65" t="s">
+        <v>207</v>
+      </c>
+      <c r="I46" s="72">
+        <v>18.8</v>
+      </c>
+      <c r="J46" s="72"/>
+      <c r="K46" s="66"/>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47" s="64"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65" t="s">
+        <v>208</v>
+      </c>
+      <c r="I47" s="72">
+        <f>I44+I46-I45</f>
+        <v>374.5</v>
+      </c>
+      <c r="J47" s="72"/>
+      <c r="K47" s="66"/>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" s="77"/>
+      <c r="C48" s="78"/>
+      <c r="D48" s="78"/>
+      <c r="E48" s="78"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="78"/>
+      <c r="H48" s="78"/>
+      <c r="I48" s="78"/>
+      <c r="J48" s="75"/>
+      <c r="K48" s="79"/>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="B51" s="45"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="46"/>
+      <c r="J51" s="46"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="46"/>
+      <c r="M51" s="46"/>
+      <c r="N51" s="46"/>
+      <c r="O51" s="47"/>
+      <c r="Q51" s="135" t="s">
+        <v>32</v>
+      </c>
+      <c r="R51" s="135" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="B52" s="48"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="49"/>
+      <c r="J52" s="49"/>
+      <c r="K52" s="49"/>
+      <c r="L52" s="49"/>
+      <c r="M52" s="49"/>
+      <c r="N52" s="49"/>
+      <c r="O52" s="51"/>
+      <c r="Q52" s="135"/>
+      <c r="R52" s="135"/>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="B53" s="48"/>
+      <c r="C53" s="165"/>
+      <c r="D53" s="162" t="s">
         <v>67</v>
       </c>
-      <c r="E36" s="72" t="s">
+      <c r="E53" s="162" t="s">
         <v>71</v>
       </c>
-      <c r="F36" s="72">
+      <c r="F53" s="162" t="s">
+        <v>71</v>
+      </c>
+      <c r="G53" s="162" t="s">
+        <v>71</v>
+      </c>
+      <c r="H53" s="162" t="s">
+        <v>71</v>
+      </c>
+      <c r="I53" s="162" t="s">
+        <v>71</v>
+      </c>
+      <c r="J53" s="162" t="s">
+        <v>219</v>
+      </c>
+      <c r="K53" s="162" t="s">
+        <v>220</v>
+      </c>
+      <c r="L53" s="162">
         <v>10</v>
       </c>
-      <c r="G36" s="72">
+      <c r="M53" s="162" t="s">
+        <v>221</v>
+      </c>
+      <c r="N53" s="163" t="s">
+        <v>238</v>
+      </c>
+      <c r="O53" s="163" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q53" s="135"/>
+      <c r="R53" s="135"/>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="B54" s="48"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="49"/>
+      <c r="I54" s="49"/>
+      <c r="J54" s="49"/>
+      <c r="K54" s="49"/>
+      <c r="L54" s="49"/>
+      <c r="M54" s="49"/>
+      <c r="N54" s="49"/>
+      <c r="O54" s="51"/>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="B55" s="48"/>
+      <c r="C55" s="172" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="172" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" s="172" t="s">
+        <v>212</v>
+      </c>
+      <c r="F55" s="172" t="s">
+        <v>4</v>
+      </c>
+      <c r="G55" s="172" t="s">
+        <v>213</v>
+      </c>
+      <c r="H55" s="172" t="s">
+        <v>214</v>
+      </c>
+      <c r="I55" s="172" t="s">
+        <v>215</v>
+      </c>
+      <c r="J55" s="172" t="s">
+        <v>216</v>
+      </c>
+      <c r="K55" s="172" t="s">
+        <v>217</v>
+      </c>
+      <c r="L55" s="172" t="s">
+        <v>25</v>
+      </c>
+      <c r="M55" s="172" t="s">
+        <v>218</v>
+      </c>
+      <c r="N55" s="50"/>
+      <c r="O55" s="164"/>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="B56" s="48"/>
+      <c r="C56" s="80">
         <v>1</v>
       </c>
-      <c r="H36" s="72">
-        <f>F36*G36</f>
+      <c r="D56" s="81" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="F56" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="G56" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="H56" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="I56" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="J56" s="81" t="s">
+        <v>219</v>
+      </c>
+      <c r="K56" s="81" t="s">
+        <v>220</v>
+      </c>
+      <c r="L56" s="81">
         <v>10</v>
       </c>
-      <c r="I36" s="73">
-        <f>0.05*H36</f>
-        <v>0.5</v>
-      </c>
-      <c r="J36" s="66"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="B37" s="64"/>
-      <c r="C37" s="71">
+      <c r="M56" s="82" t="s">
+        <v>221</v>
+      </c>
+      <c r="N56" s="163" t="s">
+        <v>240</v>
+      </c>
+      <c r="O56" s="163" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="B57" s="48"/>
+      <c r="C57" s="52">
         <v>2</v>
       </c>
-      <c r="D37" s="72" t="s">
+      <c r="D57" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="E37" s="72" t="s">
+      <c r="E57" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="F37" s="72">
+      <c r="F57" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="G57" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="H57" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="I57" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="J57" s="53" t="s">
+        <v>219</v>
+      </c>
+      <c r="K57" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="L57" s="53">
         <v>20</v>
       </c>
-      <c r="G37" s="72">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H37" s="72">
-        <f>F37*G37</f>
-        <v>46</v>
-      </c>
-      <c r="I37" s="73">
-        <f>0.05*H37</f>
-        <v>2.3000000000000003</v>
-      </c>
-      <c r="J37" s="66"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="B38" s="64"/>
-      <c r="C38" s="71">
+      <c r="M57" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="N57" s="163" t="s">
+        <v>240</v>
+      </c>
+      <c r="O57" s="163" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
+      <c r="B58" s="48"/>
+      <c r="C58" s="52">
         <v>3</v>
       </c>
-      <c r="D38" s="72" t="s">
+      <c r="D58" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="E38" s="72" t="s">
+      <c r="E58" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="F38" s="72">
+      <c r="F58" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="G58" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="H58" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="I58" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="J58" s="53" t="s">
+        <v>219</v>
+      </c>
+      <c r="K58" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="L58" s="53">
         <v>30</v>
       </c>
-      <c r="G38" s="72">
+      <c r="M58" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="N58" s="163" t="s">
+        <v>240</v>
+      </c>
+      <c r="O58" s="163" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
+      <c r="B59" s="48"/>
+      <c r="C59" s="55">
         <v>4</v>
       </c>
-      <c r="H38" s="72">
-        <f>F38*G38</f>
-        <v>120</v>
-      </c>
-      <c r="I38" s="73">
-        <f>0.05*H38</f>
+      <c r="D59" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E59" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="F59" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="G59" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="H59" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="I59" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="J59" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="K59" s="56" t="s">
+        <v>220</v>
+      </c>
+      <c r="L59" s="56">
+        <v>40</v>
+      </c>
+      <c r="M59" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="N59" s="163" t="s">
+        <v>240</v>
+      </c>
+      <c r="O59" s="163" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="B60" s="58"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="59"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="59"/>
+      <c r="H60" s="59"/>
+      <c r="I60" s="59"/>
+      <c r="J60" s="59"/>
+      <c r="K60" s="59"/>
+      <c r="L60" s="59"/>
+      <c r="M60" s="59"/>
+      <c r="N60" s="59"/>
+      <c r="O60" s="60"/>
+    </row>
+    <row r="61" spans="1:18" s="110" customFormat="1">
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="A62">
+        <v>5</v>
+      </c>
+      <c r="B62" t="s">
+        <v>223</v>
+      </c>
+      <c r="C62" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="B63" s="92"/>
+      <c r="C63" s="93"/>
+      <c r="D63" s="93"/>
+      <c r="E63" s="93"/>
+      <c r="F63" s="93"/>
+      <c r="G63" s="93"/>
+      <c r="H63" s="93"/>
+      <c r="I63" s="93"/>
+      <c r="J63" s="93"/>
+      <c r="K63" s="93"/>
+      <c r="L63" s="93"/>
+      <c r="M63" s="94"/>
+      <c r="N63" s="138"/>
+      <c r="Q63" s="135" t="s">
+        <v>32</v>
+      </c>
+      <c r="R63" s="135" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
+      <c r="B64" s="95"/>
+      <c r="C64" s="97"/>
+      <c r="D64" s="97"/>
+      <c r="E64" s="97"/>
+      <c r="F64" s="97"/>
+      <c r="G64" s="97"/>
+      <c r="H64" s="97"/>
+      <c r="I64" s="97"/>
+      <c r="J64" s="97"/>
+      <c r="K64" s="97"/>
+      <c r="L64" s="97"/>
+      <c r="M64" s="96"/>
+      <c r="N64" s="139"/>
+      <c r="Q64" s="135"/>
+      <c r="R64" s="135"/>
+    </row>
+    <row r="65" spans="1:18">
+      <c r="B65" s="95"/>
+      <c r="C65" s="97"/>
+      <c r="D65" s="170">
+        <v>43101</v>
+      </c>
+      <c r="E65" s="162" t="s">
+        <v>71</v>
+      </c>
+      <c r="F65" s="162" t="s">
+        <v>229</v>
+      </c>
+      <c r="G65" s="162" t="s">
+        <v>230</v>
+      </c>
+      <c r="H65" s="162" t="s">
+        <v>67</v>
+      </c>
+      <c r="I65" s="162" t="s">
+        <v>231</v>
+      </c>
+      <c r="J65" s="162" t="s">
+        <v>219</v>
+      </c>
+      <c r="K65" s="162">
+        <v>5</v>
+      </c>
+      <c r="L65" s="162"/>
+      <c r="M65" s="166" t="s">
+        <v>241</v>
+      </c>
+      <c r="N65" s="139"/>
+      <c r="Q65" s="135"/>
+      <c r="R65" s="135"/>
+    </row>
+    <row r="66" spans="1:18">
+      <c r="B66" s="95"/>
+      <c r="C66" s="97"/>
+      <c r="D66" s="97"/>
+      <c r="E66" s="97"/>
+      <c r="F66" s="97"/>
+      <c r="G66" s="97"/>
+      <c r="H66" s="97"/>
+      <c r="I66" s="97"/>
+      <c r="J66" s="97"/>
+      <c r="K66" s="97"/>
+      <c r="L66" s="97"/>
+      <c r="M66" s="96"/>
+      <c r="N66" s="139"/>
+    </row>
+    <row r="67" spans="1:18">
+      <c r="B67" s="95"/>
+      <c r="C67" s="171" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" s="171" t="s">
+        <v>224</v>
+      </c>
+      <c r="E67" s="171" t="s">
+        <v>210</v>
+      </c>
+      <c r="F67" s="171" t="s">
+        <v>209</v>
+      </c>
+      <c r="G67" s="171" t="s">
+        <v>225</v>
+      </c>
+      <c r="H67" s="171" t="s">
+        <v>226</v>
+      </c>
+      <c r="I67" s="171" t="s">
+        <v>215</v>
+      </c>
+      <c r="J67" s="171" t="s">
+        <v>227</v>
+      </c>
+      <c r="K67" s="171" t="s">
+        <v>228</v>
+      </c>
+      <c r="L67" s="167"/>
+      <c r="M67" s="96"/>
+      <c r="N67" s="139"/>
+    </row>
+    <row r="68" spans="1:18">
+      <c r="B68" s="95"/>
+      <c r="C68" s="83">
+        <v>1</v>
+      </c>
+      <c r="D68" s="161">
+        <v>43101</v>
+      </c>
+      <c r="E68" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="F68" s="84" t="s">
+        <v>229</v>
+      </c>
+      <c r="G68" s="84" t="s">
+        <v>230</v>
+      </c>
+      <c r="H68" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="I68" s="84" t="s">
+        <v>231</v>
+      </c>
+      <c r="J68" s="84" t="s">
+        <v>219</v>
+      </c>
+      <c r="K68" s="84">
+        <v>5</v>
+      </c>
+      <c r="L68" s="85"/>
+      <c r="M68" s="163" t="s">
+        <v>239</v>
+      </c>
+      <c r="N68" s="139"/>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="B69" s="95"/>
+      <c r="C69" s="86">
+        <v>2</v>
+      </c>
+      <c r="D69" s="168">
+        <v>43101</v>
+      </c>
+      <c r="E69" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="F69" s="87" t="s">
+        <v>229</v>
+      </c>
+      <c r="G69" s="87" t="s">
+        <v>230</v>
+      </c>
+      <c r="H69" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="I69" s="87" t="s">
+        <v>231</v>
+      </c>
+      <c r="J69" s="87" t="s">
+        <v>219</v>
+      </c>
+      <c r="K69" s="87">
+        <v>5</v>
+      </c>
+      <c r="L69" s="88"/>
+      <c r="M69" s="163" t="s">
+        <v>239</v>
+      </c>
+      <c r="N69" s="139"/>
+    </row>
+    <row r="70" spans="1:18">
+      <c r="B70" s="95"/>
+      <c r="C70" s="86">
+        <v>3</v>
+      </c>
+      <c r="D70" s="168">
+        <v>43101</v>
+      </c>
+      <c r="E70" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="F70" s="87" t="s">
+        <v>229</v>
+      </c>
+      <c r="G70" s="87" t="s">
+        <v>230</v>
+      </c>
+      <c r="H70" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="I70" s="87" t="s">
+        <v>231</v>
+      </c>
+      <c r="J70" s="87" t="s">
+        <v>219</v>
+      </c>
+      <c r="K70" s="87">
+        <v>5</v>
+      </c>
+      <c r="L70" s="88"/>
+      <c r="M70" s="96"/>
+      <c r="N70" s="139"/>
+    </row>
+    <row r="71" spans="1:18">
+      <c r="B71" s="95"/>
+      <c r="C71" s="89">
+        <v>4</v>
+      </c>
+      <c r="D71" s="169">
+        <v>43101</v>
+      </c>
+      <c r="E71" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="F71" s="90" t="s">
+        <v>229</v>
+      </c>
+      <c r="G71" s="90" t="s">
+        <v>230</v>
+      </c>
+      <c r="H71" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="I71" s="90" t="s">
+        <v>231</v>
+      </c>
+      <c r="J71" s="90" t="s">
+        <v>219</v>
+      </c>
+      <c r="K71" s="90">
+        <v>5</v>
+      </c>
+      <c r="L71" s="91"/>
+      <c r="M71" s="96"/>
+      <c r="N71" s="139"/>
+    </row>
+    <row r="72" spans="1:18">
+      <c r="B72" s="98"/>
+      <c r="C72" s="99"/>
+      <c r="D72" s="99"/>
+      <c r="E72" s="99"/>
+      <c r="F72" s="99"/>
+      <c r="G72" s="99"/>
+      <c r="H72" s="99"/>
+      <c r="I72" s="99"/>
+      <c r="J72" s="99"/>
+      <c r="K72" s="99"/>
+      <c r="L72" s="99"/>
+      <c r="M72" s="100"/>
+      <c r="N72" s="140"/>
+    </row>
+    <row r="73" spans="1:18" s="110" customFormat="1">
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+    </row>
+    <row r="75" spans="1:18">
+      <c r="A75">
         <v>6</v>
       </c>
-      <c r="J38" s="66"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="B39" s="64"/>
-      <c r="C39" s="74">
-        <v>4</v>
-      </c>
-      <c r="D39" s="75" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" s="75" t="s">
-        <v>74</v>
-      </c>
-      <c r="F39" s="75">
-        <v>40</v>
-      </c>
-      <c r="G39" s="75">
-        <v>5</v>
-      </c>
-      <c r="H39" s="75">
-        <f>F39*G39</f>
-        <v>200</v>
-      </c>
-      <c r="I39" s="76">
-        <f>0.05*H39</f>
-        <v>10</v>
-      </c>
-      <c r="J39" s="66"/>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="B40" s="64"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="66"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="B41" s="64"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65" t="s">
-        <v>140</v>
-      </c>
-      <c r="H41" s="72">
-        <f>SUM(H36:H39)</f>
-        <v>376</v>
-      </c>
-      <c r="I41" s="72">
-        <f>SUM(I36:I39)</f>
-        <v>18.8</v>
-      </c>
-      <c r="J41" s="66"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="B42" s="64"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65" t="s">
-        <v>139</v>
-      </c>
-      <c r="H42" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="I42" s="65"/>
-      <c r="J42" s="66"/>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="B43" s="77"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="78"/>
-      <c r="I43" s="75"/>
-      <c r="J43" s="79"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45">
-        <v>4</v>
-      </c>
-      <c r="B45" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="B46" s="45"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="47"/>
-      <c r="I46" s="140" t="s">
+      <c r="B75" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
+      <c r="B76" s="101"/>
+      <c r="C76" s="102"/>
+      <c r="D76" s="102"/>
+      <c r="E76" s="102"/>
+      <c r="F76" s="103"/>
+    </row>
+    <row r="77" spans="1:18">
+      <c r="B77" s="104"/>
+      <c r="C77" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="D77" s="173" t="s">
+        <v>146</v>
+      </c>
+      <c r="E77" s="158"/>
+      <c r="F77" s="106"/>
+      <c r="H77" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="J46" s="140" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="B47" s="48"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="80" t="s">
+      <c r="I77" s="135" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
+      <c r="B78" s="104"/>
+      <c r="C78" s="105" t="s">
         <v>147</v>
       </c>
-      <c r="E47" s="80" t="s">
+      <c r="D78" s="174">
+        <v>43040</v>
+      </c>
+      <c r="E78" s="159"/>
+      <c r="F78" s="106"/>
+    </row>
+    <row r="79" spans="1:18">
+      <c r="B79" s="104"/>
+      <c r="C79" s="105" t="s">
         <v>148</v>
       </c>
-      <c r="F47" s="80" t="s">
+      <c r="D79" s="174">
+        <v>43405</v>
+      </c>
+      <c r="E79" s="159"/>
+      <c r="F79" s="106"/>
+    </row>
+    <row r="80" spans="1:18">
+      <c r="B80" s="104"/>
+      <c r="C80" s="105"/>
+      <c r="D80" s="105"/>
+      <c r="E80" s="105"/>
+      <c r="F80" s="106"/>
+    </row>
+    <row r="81" spans="2:6">
+      <c r="B81" s="104"/>
+      <c r="C81" s="105"/>
+      <c r="D81" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="G47" s="51"/>
-      <c r="I47" s="140" t="s">
-        <v>33</v>
-      </c>
-      <c r="J47" s="140" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="B48" s="48"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="51"/>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="B49" s="48"/>
-      <c r="C49" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="D49" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="G49" s="51"/>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="B50" s="48"/>
-      <c r="C50" s="81">
-        <v>1</v>
-      </c>
-      <c r="D50" s="82" t="s">
-        <v>67</v>
-      </c>
-      <c r="E50" s="82" t="s">
-        <v>71</v>
-      </c>
-      <c r="F50" s="83">
-        <v>10</v>
-      </c>
-      <c r="G50" s="51"/>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="B51" s="48"/>
-      <c r="C51" s="52">
-        <v>2</v>
-      </c>
-      <c r="D51" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="E51" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="F51" s="54">
-        <v>20</v>
-      </c>
-      <c r="G51" s="51"/>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="B52" s="48"/>
-      <c r="C52" s="52">
-        <v>3</v>
-      </c>
-      <c r="D52" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="E52" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="F52" s="54">
-        <v>30</v>
-      </c>
-      <c r="G52" s="51"/>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="B53" s="48"/>
-      <c r="C53" s="55">
-        <v>4</v>
-      </c>
-      <c r="D53" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="E53" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="F53" s="57">
-        <v>40</v>
-      </c>
-      <c r="G53" s="51"/>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="B54" s="58"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="59"/>
-      <c r="G54" s="60"/>
-    </row>
-    <row r="55" spans="1:10" s="115" customFormat="1">
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56">
-        <v>5</v>
-      </c>
-      <c r="B56" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="B57" s="95"/>
-      <c r="C57" s="96"/>
-      <c r="D57" s="96"/>
-      <c r="E57" s="96"/>
-      <c r="F57" s="97"/>
-      <c r="I57" s="140" t="s">
-        <v>32</v>
-      </c>
-      <c r="J57" s="140" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="B58" s="98"/>
-      <c r="C58" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="D58" s="84" t="s">
-        <v>152</v>
-      </c>
-      <c r="E58" s="84" t="s">
-        <v>149</v>
-      </c>
-      <c r="F58" s="99"/>
-      <c r="I58" s="140" t="s">
-        <v>33</v>
-      </c>
-      <c r="J58" s="140" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="B59" s="98"/>
-      <c r="C59" s="100"/>
-      <c r="D59" s="100"/>
-      <c r="E59" s="100"/>
-      <c r="F59" s="99"/>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="B60" s="98"/>
-      <c r="C60" s="85" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60" s="85" t="s">
-        <v>4</v>
-      </c>
-      <c r="E60" s="85" t="s">
-        <v>30</v>
-      </c>
-      <c r="F60" s="99"/>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="B61" s="98"/>
-      <c r="C61" s="86">
-        <v>1</v>
-      </c>
-      <c r="D61" s="87" t="s">
-        <v>67</v>
-      </c>
-      <c r="E61" s="88" t="s">
-        <v>71</v>
-      </c>
-      <c r="F61" s="99"/>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="B62" s="98"/>
-      <c r="C62" s="89">
-        <v>2</v>
-      </c>
-      <c r="D62" s="90" t="s">
-        <v>68</v>
-      </c>
-      <c r="E62" s="91" t="s">
-        <v>72</v>
-      </c>
-      <c r="F62" s="99"/>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="B63" s="98"/>
-      <c r="C63" s="89">
-        <v>3</v>
-      </c>
-      <c r="D63" s="90" t="s">
-        <v>69</v>
-      </c>
-      <c r="E63" s="91" t="s">
-        <v>73</v>
-      </c>
-      <c r="F63" s="99"/>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="B64" s="98"/>
-      <c r="C64" s="92">
-        <v>4</v>
-      </c>
-      <c r="D64" s="93" t="s">
-        <v>70</v>
-      </c>
-      <c r="E64" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F64" s="99"/>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="B65" s="101"/>
-      <c r="C65" s="102"/>
-      <c r="D65" s="102"/>
-      <c r="E65" s="102"/>
-      <c r="F65" s="103"/>
-    </row>
-    <row r="66" spans="1:8" s="115" customFormat="1">
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68">
-        <v>6</v>
-      </c>
-      <c r="B68" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="B69" s="106"/>
-      <c r="C69" s="107"/>
-      <c r="D69" s="107"/>
-      <c r="E69" s="108"/>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="B70" s="109"/>
-      <c r="C70" s="110" t="s">
-        <v>27</v>
-      </c>
-      <c r="D70" s="104" t="s">
-        <v>153</v>
-      </c>
-      <c r="E70" s="111"/>
-      <c r="G70" s="140" t="s">
-        <v>32</v>
-      </c>
-      <c r="H70" s="140" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="B71" s="109"/>
-      <c r="C71" s="110" t="s">
-        <v>154</v>
-      </c>
-      <c r="D71" s="105">
-        <v>43040</v>
-      </c>
-      <c r="E71" s="111"/>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="B72" s="109"/>
-      <c r="C72" s="110" t="s">
-        <v>155</v>
-      </c>
-      <c r="D72" s="105">
-        <v>43405</v>
-      </c>
-      <c r="E72" s="111"/>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="B73" s="109"/>
-      <c r="C73" s="110"/>
-      <c r="D73" s="110"/>
-      <c r="E73" s="111"/>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="B74" s="109"/>
-      <c r="C74" s="110"/>
-      <c r="D74" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="E74" s="111"/>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="B75" s="109"/>
-      <c r="C75" s="110"/>
-      <c r="D75" s="110"/>
-      <c r="E75" s="111"/>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="B76" s="112"/>
-      <c r="C76" s="113"/>
-      <c r="D76" s="113"/>
-      <c r="E76" s="114"/>
+      <c r="E81" s="160"/>
+      <c r="F81" s="106"/>
+    </row>
+    <row r="82" spans="2:6">
+      <c r="B82" s="104"/>
+      <c r="C82" s="105"/>
+      <c r="D82" s="105"/>
+      <c r="E82" s="105"/>
+      <c r="F82" s="106"/>
+    </row>
+    <row r="83" spans="2:6">
+      <c r="B83" s="107"/>
+      <c r="C83" s="108"/>
+      <c r="D83" s="108"/>
+      <c r="E83" s="108"/>
+      <c r="F83" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3577,8 +4215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C5:I55"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3596,26 +4234,26 @@
     </row>
     <row r="6" spans="3:9">
       <c r="C6" s="48"/>
-      <c r="D6" s="154" t="s">
-        <v>160</v>
-      </c>
-      <c r="E6" s="154"/>
+      <c r="D6" s="150" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="150"/>
       <c r="F6" s="51"/>
     </row>
     <row r="7" spans="3:9">
       <c r="C7" s="48"/>
-      <c r="D7" s="154" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="154"/>
+      <c r="D7" s="150" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="150"/>
       <c r="F7" s="51"/>
     </row>
     <row r="8" spans="3:9">
       <c r="C8" s="48"/>
-      <c r="D8" s="154" t="s">
-        <v>161</v>
-      </c>
-      <c r="E8" s="154"/>
+      <c r="D8" s="150" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" s="150"/>
       <c r="F8" s="51"/>
     </row>
     <row r="9" spans="3:9">
@@ -3633,17 +4271,17 @@
     <row r="11" spans="3:9">
       <c r="C11" s="48"/>
       <c r="D11" s="49" t="s">
-        <v>158</v>
-      </c>
-      <c r="E11" s="116"/>
+        <v>151</v>
+      </c>
+      <c r="E11" s="111"/>
       <c r="F11" s="51"/>
     </row>
     <row r="12" spans="3:9">
       <c r="C12" s="48"/>
       <c r="D12" s="49" t="s">
-        <v>159</v>
-      </c>
-      <c r="E12" s="116"/>
+        <v>152</v>
+      </c>
+      <c r="E12" s="111"/>
       <c r="F12" s="51"/>
     </row>
     <row r="13" spans="3:9">
@@ -3660,10 +4298,10 @@
     </row>
     <row r="15" spans="3:9">
       <c r="C15" s="48"/>
-      <c r="D15" s="159" t="s">
-        <v>174</v>
-      </c>
-      <c r="E15" s="160"/>
+      <c r="D15" s="151" t="s">
+        <v>166</v>
+      </c>
+      <c r="E15" s="152"/>
       <c r="F15" s="51"/>
       <c r="H15" t="s">
         <v>33</v>
@@ -3686,18 +4324,18 @@
     </row>
     <row r="18" spans="3:9">
       <c r="H18" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="3:9">
-      <c r="C19" s="155" t="s">
-        <v>171</v>
-      </c>
-      <c r="D19" s="156"/>
-      <c r="E19" s="157" t="s">
-        <v>175</v>
-      </c>
-      <c r="F19" s="158"/>
+      <c r="C19" s="154" t="s">
+        <v>236</v>
+      </c>
+      <c r="D19" s="155"/>
+      <c r="E19" s="156" t="s">
+        <v>167</v>
+      </c>
+      <c r="F19" s="157"/>
       <c r="H19" t="s">
         <v>32</v>
       </c>
@@ -3706,24 +4344,24 @@
       </c>
     </row>
     <row r="20" spans="3:9">
-      <c r="C20" s="123"/>
-      <c r="D20" s="124"/>
-      <c r="E20" s="124"/>
-      <c r="F20" s="125"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="120"/>
     </row>
     <row r="21" spans="3:9">
-      <c r="C21" s="126"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="128"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="123"/>
     </row>
     <row r="22" spans="3:9">
-      <c r="C22" s="126"/>
-      <c r="D22" s="127" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="116"/>
-      <c r="F22" s="128"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="122" t="s">
+        <v>237</v>
+      </c>
+      <c r="E22" s="111"/>
+      <c r="F22" s="123"/>
       <c r="H22" t="s">
         <v>32</v>
       </c>
@@ -3732,226 +4370,228 @@
       </c>
     </row>
     <row r="23" spans="3:9">
-      <c r="C23" s="126"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="127"/>
-      <c r="F23" s="128"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="122"/>
+      <c r="F23" s="123"/>
     </row>
     <row r="24" spans="3:9">
-      <c r="C24" s="126"/>
-      <c r="D24" s="127" t="s">
+      <c r="C24" s="121"/>
+      <c r="D24" s="122" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="129"/>
-      <c r="F24" s="128"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="123"/>
     </row>
     <row r="25" spans="3:9">
-      <c r="C25" s="126"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="128"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="123"/>
     </row>
     <row r="26" spans="3:9">
-      <c r="C26" s="126"/>
-      <c r="D26" s="127" t="s">
+      <c r="C26" s="121"/>
+      <c r="D26" s="122" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="129"/>
-      <c r="F26" s="128"/>
+      <c r="E26" s="124"/>
+      <c r="F26" s="123"/>
     </row>
     <row r="27" spans="3:9">
-      <c r="C27" s="126"/>
-      <c r="D27" s="127"/>
-      <c r="E27" s="127"/>
-      <c r="F27" s="128"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="123"/>
     </row>
     <row r="28" spans="3:9">
-      <c r="C28" s="126"/>
-      <c r="D28" s="127" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" s="116"/>
-      <c r="F28" s="128"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="122" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="111"/>
+      <c r="F28" s="123"/>
     </row>
     <row r="29" spans="3:9">
-      <c r="C29" s="126"/>
-      <c r="D29" s="127"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="128"/>
+      <c r="C29" s="121"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="123"/>
     </row>
     <row r="30" spans="3:9">
-      <c r="C30" s="126"/>
-      <c r="D30" s="127"/>
-      <c r="E30" s="127"/>
-      <c r="F30" s="128"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="122" t="s">
+        <v>206</v>
+      </c>
+      <c r="E30" s="111"/>
+      <c r="F30" s="123"/>
     </row>
     <row r="31" spans="3:9">
-      <c r="C31" s="126"/>
-      <c r="D31" s="127"/>
-      <c r="E31" s="127"/>
-      <c r="F31" s="128"/>
+      <c r="C31" s="121"/>
+      <c r="D31" s="122"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="123"/>
     </row>
     <row r="32" spans="3:9">
-      <c r="C32" s="126"/>
-      <c r="D32" s="127"/>
-      <c r="E32" s="127"/>
-      <c r="F32" s="128"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="122"/>
+      <c r="E32" s="122"/>
+      <c r="F32" s="123"/>
       <c r="H32" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="3:6">
-      <c r="C33" s="130"/>
-      <c r="D33" s="131"/>
-      <c r="E33" s="131"/>
-      <c r="F33" s="132"/>
+      <c r="C33" s="125"/>
+      <c r="D33" s="126"/>
+      <c r="E33" s="126"/>
+      <c r="F33" s="127"/>
     </row>
     <row r="35" spans="3:6">
       <c r="C35" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="3:6">
-      <c r="C36" s="161" t="s">
-        <v>171</v>
-      </c>
-      <c r="D36" s="162"/>
-      <c r="E36" s="155" t="s">
-        <v>175</v>
-      </c>
-      <c r="F36" s="156"/>
+      <c r="C36" s="156" t="s">
+        <v>235</v>
+      </c>
+      <c r="D36" s="153"/>
+      <c r="E36" s="154" t="s">
+        <v>167</v>
+      </c>
+      <c r="F36" s="155"/>
     </row>
     <row r="37" spans="3:6">
-      <c r="C37" s="126"/>
-      <c r="D37" s="127"/>
-      <c r="E37" s="127"/>
-      <c r="F37" s="128"/>
+      <c r="C37" s="121"/>
+      <c r="D37" s="122"/>
+      <c r="E37" s="122"/>
+      <c r="F37" s="123"/>
     </row>
     <row r="38" spans="3:6">
-      <c r="C38" s="134"/>
-      <c r="D38" s="135" t="s">
-        <v>169</v>
-      </c>
-      <c r="E38" s="135"/>
-      <c r="F38" s="136"/>
+      <c r="C38" s="129"/>
+      <c r="D38" s="130" t="s">
+        <v>162</v>
+      </c>
+      <c r="E38" s="130"/>
+      <c r="F38" s="131"/>
     </row>
     <row r="39" spans="3:6">
-      <c r="C39" s="134"/>
-      <c r="D39" s="135" t="s">
-        <v>169</v>
-      </c>
-      <c r="E39" s="135"/>
-      <c r="F39" s="136"/>
+      <c r="C39" s="129"/>
+      <c r="D39" s="130" t="s">
+        <v>162</v>
+      </c>
+      <c r="E39" s="130"/>
+      <c r="F39" s="131"/>
     </row>
     <row r="40" spans="3:6">
-      <c r="C40" s="134"/>
-      <c r="D40" s="135" t="s">
-        <v>169</v>
-      </c>
-      <c r="E40" s="135"/>
-      <c r="F40" s="136"/>
+      <c r="C40" s="129"/>
+      <c r="D40" s="130" t="s">
+        <v>162</v>
+      </c>
+      <c r="E40" s="130"/>
+      <c r="F40" s="131"/>
     </row>
     <row r="41" spans="3:6">
-      <c r="C41" s="134"/>
-      <c r="D41" s="135" t="s">
-        <v>169</v>
-      </c>
-      <c r="E41" s="135"/>
-      <c r="F41" s="136"/>
+      <c r="C41" s="129"/>
+      <c r="D41" s="130" t="s">
+        <v>162</v>
+      </c>
+      <c r="E41" s="130"/>
+      <c r="F41" s="131"/>
     </row>
     <row r="42" spans="3:6">
-      <c r="C42" s="134"/>
-      <c r="D42" s="135" t="s">
-        <v>169</v>
-      </c>
-      <c r="E42" s="135"/>
-      <c r="F42" s="136"/>
+      <c r="C42" s="129"/>
+      <c r="D42" s="130" t="s">
+        <v>162</v>
+      </c>
+      <c r="E42" s="130"/>
+      <c r="F42" s="131"/>
     </row>
     <row r="43" spans="3:6">
-      <c r="C43" s="134"/>
-      <c r="D43" s="135" t="s">
-        <v>169</v>
-      </c>
-      <c r="E43" s="135"/>
-      <c r="F43" s="136"/>
+      <c r="C43" s="129"/>
+      <c r="D43" s="130" t="s">
+        <v>162</v>
+      </c>
+      <c r="E43" s="130"/>
+      <c r="F43" s="131"/>
     </row>
     <row r="44" spans="3:6">
-      <c r="C44" s="134"/>
-      <c r="D44" s="135" t="s">
-        <v>169</v>
-      </c>
-      <c r="E44" s="135"/>
-      <c r="F44" s="136"/>
+      <c r="C44" s="129"/>
+      <c r="D44" s="130" t="s">
+        <v>162</v>
+      </c>
+      <c r="E44" s="130"/>
+      <c r="F44" s="131"/>
     </row>
     <row r="45" spans="3:6">
-      <c r="C45" s="134"/>
-      <c r="D45" s="135" t="s">
-        <v>169</v>
-      </c>
-      <c r="E45" s="135"/>
-      <c r="F45" s="136"/>
+      <c r="C45" s="129"/>
+      <c r="D45" s="130" t="s">
+        <v>162</v>
+      </c>
+      <c r="E45" s="130"/>
+      <c r="F45" s="131"/>
     </row>
     <row r="46" spans="3:6">
-      <c r="C46" s="126"/>
-      <c r="D46" s="127"/>
-      <c r="E46" s="127"/>
-      <c r="F46" s="128"/>
+      <c r="C46" s="121"/>
+      <c r="D46" s="122"/>
+      <c r="E46" s="122"/>
+      <c r="F46" s="123"/>
     </row>
     <row r="47" spans="3:6">
-      <c r="C47" s="126"/>
-      <c r="D47" s="127"/>
-      <c r="E47" s="127"/>
-      <c r="F47" s="128"/>
+      <c r="C47" s="121"/>
+      <c r="D47" s="122"/>
+      <c r="E47" s="122"/>
+      <c r="F47" s="123"/>
     </row>
     <row r="48" spans="3:6">
-      <c r="C48" s="126"/>
-      <c r="D48" s="133" t="s">
-        <v>172</v>
-      </c>
-      <c r="E48" s="129"/>
-      <c r="F48" s="128"/>
+      <c r="C48" s="121"/>
+      <c r="D48" s="128" t="s">
+        <v>164</v>
+      </c>
+      <c r="E48" s="124"/>
+      <c r="F48" s="123"/>
     </row>
     <row r="49" spans="3:9">
-      <c r="C49" s="126"/>
-      <c r="D49" s="133" t="s">
-        <v>173</v>
-      </c>
-      <c r="E49" s="129"/>
-      <c r="F49" s="128"/>
+      <c r="C49" s="121"/>
+      <c r="D49" s="128" t="s">
+        <v>165</v>
+      </c>
+      <c r="E49" s="124"/>
+      <c r="F49" s="123"/>
     </row>
     <row r="50" spans="3:9">
-      <c r="C50" s="126"/>
-      <c r="D50" s="133" t="s">
-        <v>139</v>
-      </c>
-      <c r="E50" s="137" t="s">
+      <c r="C50" s="121"/>
+      <c r="D50" s="128" t="s">
+        <v>138</v>
+      </c>
+      <c r="E50" s="132" t="s">
         <v>76</v>
       </c>
-      <c r="F50" s="128"/>
+      <c r="F50" s="123"/>
     </row>
     <row r="51" spans="3:9">
-      <c r="C51" s="126"/>
-      <c r="D51" s="133" t="s">
-        <v>167</v>
-      </c>
-      <c r="E51" s="138">
+      <c r="C51" s="121"/>
+      <c r="D51" s="128" t="s">
+        <v>160</v>
+      </c>
+      <c r="E51" s="133">
         <v>9448373533</v>
       </c>
-      <c r="F51" s="128"/>
+      <c r="F51" s="123"/>
     </row>
     <row r="52" spans="3:9">
-      <c r="C52" s="126"/>
-      <c r="D52" s="127"/>
-      <c r="E52" s="127"/>
-      <c r="F52" s="128"/>
+      <c r="C52" s="121"/>
+      <c r="D52" s="122"/>
+      <c r="E52" s="122"/>
+      <c r="F52" s="123"/>
     </row>
     <row r="53" spans="3:9">
-      <c r="C53" s="126"/>
-      <c r="D53" s="159" t="s">
-        <v>170</v>
-      </c>
-      <c r="E53" s="160"/>
-      <c r="F53" s="128"/>
+      <c r="C53" s="121"/>
+      <c r="D53" s="151" t="s">
+        <v>163</v>
+      </c>
+      <c r="E53" s="152"/>
+      <c r="F53" s="123"/>
       <c r="H53" t="s">
         <v>33</v>
       </c>
@@ -3960,16 +4600,16 @@
       </c>
     </row>
     <row r="54" spans="3:9">
-      <c r="C54" s="126"/>
-      <c r="D54" s="127"/>
-      <c r="E54" s="127"/>
-      <c r="F54" s="128"/>
+      <c r="C54" s="121"/>
+      <c r="D54" s="122"/>
+      <c r="E54" s="122"/>
+      <c r="F54" s="123"/>
     </row>
     <row r="55" spans="3:9">
-      <c r="C55" s="130"/>
-      <c r="D55" s="131"/>
-      <c r="E55" s="131"/>
-      <c r="F55" s="132"/>
+      <c r="C55" s="125"/>
+      <c r="D55" s="126"/>
+      <c r="E55" s="126"/>
+      <c r="F55" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4010,7 +4650,7 @@
         <v>40</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G2" s="35"/>
       <c r="H2" s="35"/>
@@ -4044,10 +4684,10 @@
         <v>10</v>
       </c>
       <c r="F5" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="31" t="s">
         <v>144</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="6" spans="2:8">
@@ -4064,10 +4704,10 @@
         <v>20</v>
       </c>
       <c r="F6" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="31" t="s">
         <v>144</v>
-      </c>
-      <c r="G6" s="31" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="7" spans="2:8">
@@ -4084,10 +4724,10 @@
         <v>30</v>
       </c>
       <c r="F7" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" s="31" t="s">
         <v>144</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="8" spans="2:8">
@@ -4104,10 +4744,10 @@
         <v>40</v>
       </c>
       <c r="F8" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="31" t="s">
         <v>144</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="14" spans="2:8">
@@ -4118,42 +4758,42 @@
     </row>
     <row r="15" spans="2:8">
       <c r="C15" s="48"/>
-      <c r="D15" s="119" t="s">
-        <v>165</v>
-      </c>
-      <c r="E15" s="120" t="s">
-        <v>166</v>
+      <c r="D15" s="114" t="s">
+        <v>158</v>
+      </c>
+      <c r="E15" s="115" t="s">
+        <v>159</v>
       </c>
       <c r="F15" s="51"/>
     </row>
     <row r="16" spans="2:8">
       <c r="C16" s="48"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="121"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="116"/>
       <c r="F16" s="51"/>
     </row>
     <row r="17" spans="3:6">
       <c r="C17" s="48"/>
-      <c r="D17" s="119" t="s">
-        <v>162</v>
-      </c>
-      <c r="E17" s="120">
+      <c r="D17" s="114" t="s">
+        <v>155</v>
+      </c>
+      <c r="E17" s="115">
         <v>5</v>
       </c>
       <c r="F17" s="51"/>
     </row>
     <row r="18" spans="3:6">
       <c r="C18" s="48"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="121"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="116"/>
       <c r="F18" s="51"/>
     </row>
     <row r="19" spans="3:6">
       <c r="C19" s="48"/>
-      <c r="D19" s="119" t="s">
-        <v>163</v>
-      </c>
-      <c r="E19" s="120">
+      <c r="D19" s="114" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19" s="115">
         <v>501.03</v>
       </c>
       <c r="F19" s="51"/>
@@ -4166,10 +4806,10 @@
     </row>
     <row r="21" spans="3:6">
       <c r="C21" s="48"/>
-      <c r="D21" s="118" t="s">
-        <v>167</v>
-      </c>
-      <c r="E21" s="122">
+      <c r="D21" s="113" t="s">
+        <v>160</v>
+      </c>
+      <c r="E21" s="117">
         <v>12345</v>
       </c>
       <c r="F21" s="51"/>
@@ -4182,10 +4822,10 @@
     </row>
     <row r="23" spans="3:6">
       <c r="C23" s="48"/>
-      <c r="D23" s="159" t="s">
-        <v>164</v>
-      </c>
-      <c r="E23" s="160"/>
+      <c r="D23" s="151" t="s">
+        <v>157</v>
+      </c>
+      <c r="E23" s="152"/>
       <c r="F23" s="51"/>
     </row>
     <row r="24" spans="3:6">
@@ -4218,7 +4858,7 @@
       <c r="E28" s="59"/>
       <c r="F28" s="60"/>
     </row>
-    <row r="29" spans="3:6" s="115" customFormat="1">
+    <row r="29" spans="3:6" s="110" customFormat="1">
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>

--- a/Design.xlsx
+++ b/Design.xlsx
@@ -460,9 +460,6 @@
     <t>Salesman Master</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>From Date</t>
   </si>
   <si>
@@ -752,6 +749,9 @@
   </si>
   <si>
     <t>View / Add / Delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date/Sales Person / Payment Mode / Category </t>
   </si>
 </sst>
 </file>
@@ -1324,36 +1324,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1392,6 +1362,36 @@
     </xf>
     <xf numFmtId="14" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1752,7 +1752,7 @@
         <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D1" t="s">
         <v>60</v>
@@ -1821,26 +1821,26 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" t="s">
         <v>179</v>
-      </c>
-      <c r="B9" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B10" s="146" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2080,7 +2080,7 @@
         <v>32</v>
       </c>
       <c r="L10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="2:12">
@@ -2356,10 +2356,10 @@
       <c r="D30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="148"/>
-      <c r="F30" s="148"/>
-      <c r="G30" s="148"/>
-      <c r="H30" s="149"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="165"/>
+      <c r="G30" s="165"/>
+      <c r="H30" s="166"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="3"/>
@@ -2747,92 +2747,92 @@
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2844,14 +2844,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.85546875" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
@@ -2868,7 +2868,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2880,28 +2880,28 @@
     </row>
     <row r="3" spans="1:9">
       <c r="B3" s="48"/>
-      <c r="C3" s="150" t="s">
-        <v>153</v>
-      </c>
-      <c r="D3" s="150"/>
+      <c r="C3" s="167" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="167"/>
       <c r="E3" s="147"/>
       <c r="F3" s="51"/>
     </row>
     <row r="4" spans="1:9">
       <c r="B4" s="48"/>
-      <c r="C4" s="150" t="s">
+      <c r="C4" s="167" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="150"/>
+      <c r="D4" s="167"/>
       <c r="E4" s="147"/>
       <c r="F4" s="51"/>
     </row>
     <row r="5" spans="1:9">
       <c r="B5" s="48"/>
-      <c r="C5" s="150" t="s">
-        <v>154</v>
-      </c>
-      <c r="D5" s="150"/>
+      <c r="C5" s="167" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="167"/>
       <c r="E5" s="147"/>
       <c r="F5" s="51"/>
     </row>
@@ -2922,7 +2922,7 @@
     <row r="8" spans="1:9">
       <c r="B8" s="48"/>
       <c r="C8" s="49" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D8" s="111"/>
       <c r="E8" s="49"/>
@@ -2931,7 +2931,7 @@
     <row r="9" spans="1:9">
       <c r="B9" s="48"/>
       <c r="C9" s="49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D9" s="111"/>
       <c r="E9" s="49"/>
@@ -2948,7 +2948,7 @@
       <c r="B11" s="48"/>
       <c r="C11" s="49"/>
       <c r="D11" s="137" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E11" s="49"/>
       <c r="F11" s="51"/>
@@ -2978,7 +2978,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2990,10 +2990,10 @@
     </row>
     <row r="18" spans="1:11" ht="21">
       <c r="B18" s="141" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C18" s="143" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D18" s="144">
         <v>24</v>
@@ -3004,7 +3004,7 @@
         <v>32</v>
       </c>
       <c r="I18" s="135" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="21">
@@ -3021,7 +3021,7 @@
         <v>141</v>
       </c>
       <c r="C20" s="143" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D20" s="144">
         <v>123.5</v>
@@ -3043,7 +3043,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="143" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D22" s="144">
         <v>5</v>
@@ -3053,7 +3053,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="B23" s="142" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23" s="39"/>
       <c r="D23" s="40"/>
@@ -3097,7 +3097,7 @@
         <v>140</v>
       </c>
       <c r="C28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -3126,7 +3126,7 @@
       <c r="H30" s="65"/>
       <c r="I30" s="65"/>
       <c r="J30" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K30" s="66"/>
     </row>
@@ -3167,10 +3167,10 @@
     <row r="33" spans="2:11">
       <c r="B33" s="64"/>
       <c r="C33" s="65" t="s">
+        <v>200</v>
+      </c>
+      <c r="D33" s="67" t="s">
         <v>201</v>
-      </c>
-      <c r="D33" s="67" t="s">
-        <v>202</v>
       </c>
       <c r="E33" s="67"/>
       <c r="F33" s="65"/>
@@ -3203,10 +3203,10 @@
     <row r="35" spans="2:11">
       <c r="B35" s="64"/>
       <c r="C35" s="65" t="s">
+        <v>202</v>
+      </c>
+      <c r="D35" s="67" t="s">
         <v>203</v>
-      </c>
-      <c r="D35" s="67" t="s">
-        <v>204</v>
       </c>
       <c r="E35" s="67"/>
       <c r="F35" s="65"/>
@@ -3249,10 +3249,10 @@
         <v>5</v>
       </c>
       <c r="E38" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="F38" s="29" t="s">
         <v>209</v>
-      </c>
-      <c r="F38" s="29" t="s">
-        <v>210</v>
       </c>
       <c r="G38" s="29" t="s">
         <v>75</v>
@@ -3264,7 +3264,7 @@
         <v>12</v>
       </c>
       <c r="J38" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K38" s="66"/>
     </row>
@@ -3408,7 +3408,7 @@
       <c r="F44" s="65"/>
       <c r="G44" s="65"/>
       <c r="H44" s="65" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I44" s="72">
         <f>SUM(I39:I42)-SUM(J39:J42)</f>
@@ -3429,7 +3429,7 @@
       <c r="F45" s="65"/>
       <c r="G45" s="65"/>
       <c r="H45" s="65" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I45" s="72">
         <v>1.5</v>
@@ -3445,7 +3445,7 @@
       <c r="F46" s="65"/>
       <c r="G46" s="65"/>
       <c r="H46" s="65" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I46" s="72">
         <v>18.8</v>
@@ -3461,7 +3461,7 @@
       <c r="F47" s="65"/>
       <c r="G47" s="65"/>
       <c r="H47" s="65" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I47" s="72">
         <f>I44+I46-I45</f>
@@ -3487,10 +3487,29 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C50" t="s">
-        <v>232</v>
+        <v>231</v>
+      </c>
+      <c r="E50">
+        <f>123*5</f>
+        <v>615</v>
+      </c>
+      <c r="F50">
+        <f>12.3*3</f>
+        <v>36.900000000000006</v>
+      </c>
+      <c r="G50">
+        <f>E50+F50</f>
+        <v>651.9</v>
+      </c>
+      <c r="H50">
+        <v>32.6</v>
+      </c>
+      <c r="I50">
+        <f>G50-H50</f>
+        <v>619.29999999999995</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -3535,42 +3554,42 @@
     </row>
     <row r="53" spans="1:18">
       <c r="B53" s="48"/>
-      <c r="C53" s="165"/>
-      <c r="D53" s="162" t="s">
+      <c r="C53" s="155"/>
+      <c r="D53" s="152" t="s">
         <v>67</v>
       </c>
-      <c r="E53" s="162" t="s">
+      <c r="E53" s="152" t="s">
         <v>71</v>
       </c>
-      <c r="F53" s="162" t="s">
+      <c r="F53" s="152" t="s">
         <v>71</v>
       </c>
-      <c r="G53" s="162" t="s">
+      <c r="G53" s="152" t="s">
         <v>71</v>
       </c>
-      <c r="H53" s="162" t="s">
+      <c r="H53" s="152" t="s">
         <v>71</v>
       </c>
-      <c r="I53" s="162" t="s">
+      <c r="I53" s="152" t="s">
         <v>71</v>
       </c>
-      <c r="J53" s="162" t="s">
+      <c r="J53" s="152" t="s">
+        <v>218</v>
+      </c>
+      <c r="K53" s="152" t="s">
         <v>219</v>
       </c>
-      <c r="K53" s="162" t="s">
+      <c r="L53" s="152">
+        <v>10</v>
+      </c>
+      <c r="M53" s="152" t="s">
         <v>220</v>
       </c>
-      <c r="L53" s="162">
-        <v>10</v>
-      </c>
-      <c r="M53" s="162" t="s">
-        <v>221</v>
-      </c>
-      <c r="N53" s="163" t="s">
-        <v>238</v>
-      </c>
-      <c r="O53" s="163" t="s">
-        <v>241</v>
+      <c r="N53" s="153" t="s">
+        <v>237</v>
+      </c>
+      <c r="O53" s="153" t="s">
+        <v>240</v>
       </c>
       <c r="Q53" s="135"/>
       <c r="R53" s="135"/>
@@ -3593,41 +3612,41 @@
     </row>
     <row r="55" spans="1:18">
       <c r="B55" s="48"/>
-      <c r="C55" s="172" t="s">
+      <c r="C55" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="D55" s="172" t="s">
+      <c r="D55" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="E55" s="172" t="s">
+      <c r="E55" s="162" t="s">
+        <v>211</v>
+      </c>
+      <c r="F55" s="162" t="s">
+        <v>4</v>
+      </c>
+      <c r="G55" s="162" t="s">
         <v>212</v>
       </c>
-      <c r="F55" s="172" t="s">
-        <v>4</v>
-      </c>
-      <c r="G55" s="172" t="s">
+      <c r="H55" s="162" t="s">
         <v>213</v>
       </c>
-      <c r="H55" s="172" t="s">
+      <c r="I55" s="162" t="s">
         <v>214</v>
       </c>
-      <c r="I55" s="172" t="s">
+      <c r="J55" s="162" t="s">
         <v>215</v>
       </c>
-      <c r="J55" s="172" t="s">
+      <c r="K55" s="162" t="s">
         <v>216</v>
       </c>
-      <c r="K55" s="172" t="s">
+      <c r="L55" s="162" t="s">
+        <v>25</v>
+      </c>
+      <c r="M55" s="162" t="s">
         <v>217</v>
       </c>
-      <c r="L55" s="172" t="s">
-        <v>25</v>
-      </c>
-      <c r="M55" s="172" t="s">
-        <v>218</v>
-      </c>
       <c r="N55" s="50"/>
-      <c r="O55" s="164"/>
+      <c r="O55" s="154"/>
     </row>
     <row r="56" spans="1:18">
       <c r="B56" s="48"/>
@@ -3653,22 +3672,22 @@
         <v>71</v>
       </c>
       <c r="J56" s="81" t="s">
+        <v>218</v>
+      </c>
+      <c r="K56" s="81" t="s">
         <v>219</v>
-      </c>
-      <c r="K56" s="81" t="s">
-        <v>220</v>
       </c>
       <c r="L56" s="81">
         <v>10</v>
       </c>
       <c r="M56" s="82" t="s">
-        <v>221</v>
-      </c>
-      <c r="N56" s="163" t="s">
-        <v>240</v>
-      </c>
-      <c r="O56" s="163" t="s">
+        <v>220</v>
+      </c>
+      <c r="N56" s="153" t="s">
         <v>239</v>
+      </c>
+      <c r="O56" s="153" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -3695,22 +3714,22 @@
         <v>72</v>
       </c>
       <c r="J57" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="K57" s="53" t="s">
         <v>219</v>
-      </c>
-      <c r="K57" s="53" t="s">
-        <v>220</v>
       </c>
       <c r="L57" s="53">
         <v>20</v>
       </c>
       <c r="M57" s="54" t="s">
-        <v>221</v>
-      </c>
-      <c r="N57" s="163" t="s">
-        <v>240</v>
-      </c>
-      <c r="O57" s="163" t="s">
+        <v>220</v>
+      </c>
+      <c r="N57" s="153" t="s">
         <v>239</v>
+      </c>
+      <c r="O57" s="153" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -3737,22 +3756,22 @@
         <v>73</v>
       </c>
       <c r="J58" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="K58" s="53" t="s">
         <v>219</v>
-      </c>
-      <c r="K58" s="53" t="s">
-        <v>220</v>
       </c>
       <c r="L58" s="53">
         <v>30</v>
       </c>
       <c r="M58" s="54" t="s">
-        <v>221</v>
-      </c>
-      <c r="N58" s="163" t="s">
-        <v>240</v>
-      </c>
-      <c r="O58" s="163" t="s">
+        <v>220</v>
+      </c>
+      <c r="N58" s="153" t="s">
         <v>239</v>
+      </c>
+      <c r="O58" s="153" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -3779,22 +3798,22 @@
         <v>74</v>
       </c>
       <c r="J59" s="56" t="s">
+        <v>218</v>
+      </c>
+      <c r="K59" s="56" t="s">
         <v>219</v>
-      </c>
-      <c r="K59" s="56" t="s">
-        <v>220</v>
       </c>
       <c r="L59" s="56">
         <v>40</v>
       </c>
       <c r="M59" s="57" t="s">
-        <v>222</v>
-      </c>
-      <c r="N59" s="163" t="s">
-        <v>240</v>
-      </c>
-      <c r="O59" s="163" t="s">
+        <v>221</v>
+      </c>
+      <c r="N59" s="153" t="s">
         <v>239</v>
+      </c>
+      <c r="O59" s="153" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -3827,10 +3846,10 @@
         <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -3874,33 +3893,33 @@
     <row r="65" spans="1:18">
       <c r="B65" s="95"/>
       <c r="C65" s="97"/>
-      <c r="D65" s="170">
+      <c r="D65" s="160">
         <v>43101</v>
       </c>
-      <c r="E65" s="162" t="s">
+      <c r="E65" s="152" t="s">
         <v>71</v>
       </c>
-      <c r="F65" s="162" t="s">
+      <c r="F65" s="152" t="s">
+        <v>228</v>
+      </c>
+      <c r="G65" s="152" t="s">
         <v>229</v>
       </c>
-      <c r="G65" s="162" t="s">
+      <c r="H65" s="152" t="s">
+        <v>67</v>
+      </c>
+      <c r="I65" s="152" t="s">
         <v>230</v>
       </c>
-      <c r="H65" s="162" t="s">
-        <v>67</v>
-      </c>
-      <c r="I65" s="162" t="s">
-        <v>231</v>
-      </c>
-      <c r="J65" s="162" t="s">
-        <v>219</v>
-      </c>
-      <c r="K65" s="162">
+      <c r="J65" s="152" t="s">
+        <v>218</v>
+      </c>
+      <c r="K65" s="152">
         <v>5</v>
       </c>
-      <c r="L65" s="162"/>
-      <c r="M65" s="166" t="s">
-        <v>241</v>
+      <c r="L65" s="152"/>
+      <c r="M65" s="156" t="s">
+        <v>240</v>
       </c>
       <c r="N65" s="139"/>
       <c r="Q65" s="135"/>
@@ -3923,34 +3942,34 @@
     </row>
     <row r="67" spans="1:18">
       <c r="B67" s="95"/>
-      <c r="C67" s="171" t="s">
+      <c r="C67" s="161" t="s">
         <v>3</v>
       </c>
-      <c r="D67" s="171" t="s">
+      <c r="D67" s="161" t="s">
+        <v>223</v>
+      </c>
+      <c r="E67" s="161" t="s">
+        <v>209</v>
+      </c>
+      <c r="F67" s="161" t="s">
+        <v>208</v>
+      </c>
+      <c r="G67" s="161" t="s">
         <v>224</v>
       </c>
-      <c r="E67" s="171" t="s">
-        <v>210</v>
-      </c>
-      <c r="F67" s="171" t="s">
-        <v>209</v>
-      </c>
-      <c r="G67" s="171" t="s">
+      <c r="H67" s="161" t="s">
         <v>225</v>
       </c>
-      <c r="H67" s="171" t="s">
+      <c r="I67" s="161" t="s">
+        <v>214</v>
+      </c>
+      <c r="J67" s="161" t="s">
         <v>226</v>
       </c>
-      <c r="I67" s="171" t="s">
-        <v>215</v>
-      </c>
-      <c r="J67" s="171" t="s">
+      <c r="K67" s="161" t="s">
         <v>227</v>
       </c>
-      <c r="K67" s="171" t="s">
-        <v>228</v>
-      </c>
-      <c r="L67" s="167"/>
+      <c r="L67" s="157"/>
       <c r="M67" s="96"/>
       <c r="N67" s="139"/>
     </row>
@@ -3959,33 +3978,33 @@
       <c r="C68" s="83">
         <v>1</v>
       </c>
-      <c r="D68" s="161">
+      <c r="D68" s="151">
         <v>43101</v>
       </c>
       <c r="E68" s="84" t="s">
         <v>71</v>
       </c>
       <c r="F68" s="84" t="s">
+        <v>228</v>
+      </c>
+      <c r="G68" s="84" t="s">
         <v>229</v>
-      </c>
-      <c r="G68" s="84" t="s">
-        <v>230</v>
       </c>
       <c r="H68" s="84" t="s">
         <v>67</v>
       </c>
       <c r="I68" s="84" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J68" s="84" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K68" s="84">
         <v>5</v>
       </c>
       <c r="L68" s="85"/>
-      <c r="M68" s="163" t="s">
-        <v>239</v>
+      <c r="M68" s="153" t="s">
+        <v>238</v>
       </c>
       <c r="N68" s="139"/>
     </row>
@@ -3994,33 +4013,33 @@
       <c r="C69" s="86">
         <v>2</v>
       </c>
-      <c r="D69" s="168">
+      <c r="D69" s="158">
         <v>43101</v>
       </c>
       <c r="E69" s="87" t="s">
         <v>71</v>
       </c>
       <c r="F69" s="87" t="s">
+        <v>228</v>
+      </c>
+      <c r="G69" s="87" t="s">
         <v>229</v>
-      </c>
-      <c r="G69" s="87" t="s">
-        <v>230</v>
       </c>
       <c r="H69" s="87" t="s">
         <v>67</v>
       </c>
       <c r="I69" s="87" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J69" s="87" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K69" s="87">
         <v>5</v>
       </c>
       <c r="L69" s="88"/>
-      <c r="M69" s="163" t="s">
-        <v>239</v>
+      <c r="M69" s="153" t="s">
+        <v>238</v>
       </c>
       <c r="N69" s="139"/>
     </row>
@@ -4029,26 +4048,26 @@
       <c r="C70" s="86">
         <v>3</v>
       </c>
-      <c r="D70" s="168">
+      <c r="D70" s="158">
         <v>43101</v>
       </c>
       <c r="E70" s="87" t="s">
         <v>71</v>
       </c>
       <c r="F70" s="87" t="s">
+        <v>228</v>
+      </c>
+      <c r="G70" s="87" t="s">
         <v>229</v>
-      </c>
-      <c r="G70" s="87" t="s">
-        <v>230</v>
       </c>
       <c r="H70" s="87" t="s">
         <v>67</v>
       </c>
       <c r="I70" s="87" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J70" s="87" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K70" s="87">
         <v>5</v>
@@ -4062,26 +4081,26 @@
       <c r="C71" s="89">
         <v>4</v>
       </c>
-      <c r="D71" s="169">
+      <c r="D71" s="159">
         <v>43101</v>
       </c>
       <c r="E71" s="90" t="s">
         <v>71</v>
       </c>
       <c r="F71" s="90" t="s">
+        <v>228</v>
+      </c>
+      <c r="G71" s="90" t="s">
         <v>229</v>
-      </c>
-      <c r="G71" s="90" t="s">
-        <v>230</v>
       </c>
       <c r="H71" s="90" t="s">
         <v>67</v>
       </c>
       <c r="I71" s="90" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J71" s="90" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K71" s="90">
         <v>5</v>
@@ -4121,7 +4140,7 @@
         <v>2</v>
       </c>
       <c r="C75" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -4136,38 +4155,38 @@
       <c r="C77" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="D77" s="173" t="s">
-        <v>146</v>
-      </c>
-      <c r="E77" s="158"/>
+      <c r="D77" s="163" t="s">
+        <v>243</v>
+      </c>
+      <c r="E77" s="148"/>
       <c r="F77" s="106"/>
       <c r="H77" s="135" t="s">
         <v>32</v>
       </c>
       <c r="I77" s="135" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="78" spans="1:18">
       <c r="B78" s="104"/>
       <c r="C78" s="105" t="s">
-        <v>147</v>
-      </c>
-      <c r="D78" s="174">
+        <v>146</v>
+      </c>
+      <c r="D78" s="164">
         <v>43040</v>
       </c>
-      <c r="E78" s="159"/>
+      <c r="E78" s="149"/>
       <c r="F78" s="106"/>
     </row>
     <row r="79" spans="1:18">
       <c r="B79" s="104"/>
       <c r="C79" s="105" t="s">
-        <v>148</v>
-      </c>
-      <c r="D79" s="174">
+        <v>147</v>
+      </c>
+      <c r="D79" s="164">
         <v>43405</v>
       </c>
-      <c r="E79" s="159"/>
+      <c r="E79" s="149"/>
       <c r="F79" s="106"/>
     </row>
     <row r="80" spans="1:18">
@@ -4181,9 +4200,9 @@
       <c r="B81" s="104"/>
       <c r="C81" s="105"/>
       <c r="D81" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="E81" s="160"/>
+        <v>148</v>
+      </c>
+      <c r="E81" s="150"/>
       <c r="F81" s="106"/>
     </row>
     <row r="82" spans="2:6">
@@ -4234,26 +4253,26 @@
     </row>
     <row r="6" spans="3:9">
       <c r="C6" s="48"/>
-      <c r="D6" s="150" t="s">
-        <v>153</v>
-      </c>
-      <c r="E6" s="150"/>
+      <c r="D6" s="167" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" s="167"/>
       <c r="F6" s="51"/>
     </row>
     <row r="7" spans="3:9">
       <c r="C7" s="48"/>
-      <c r="D7" s="150" t="s">
+      <c r="D7" s="167" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="150"/>
+      <c r="E7" s="167"/>
       <c r="F7" s="51"/>
     </row>
     <row r="8" spans="3:9">
       <c r="C8" s="48"/>
-      <c r="D8" s="150" t="s">
-        <v>154</v>
-      </c>
-      <c r="E8" s="150"/>
+      <c r="D8" s="167" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" s="167"/>
       <c r="F8" s="51"/>
     </row>
     <row r="9" spans="3:9">
@@ -4271,7 +4290,7 @@
     <row r="11" spans="3:9">
       <c r="C11" s="48"/>
       <c r="D11" s="49" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E11" s="111"/>
       <c r="F11" s="51"/>
@@ -4279,7 +4298,7 @@
     <row r="12" spans="3:9">
       <c r="C12" s="48"/>
       <c r="D12" s="49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E12" s="111"/>
       <c r="F12" s="51"/>
@@ -4298,10 +4317,10 @@
     </row>
     <row r="15" spans="3:9">
       <c r="C15" s="48"/>
-      <c r="D15" s="151" t="s">
-        <v>166</v>
-      </c>
-      <c r="E15" s="152"/>
+      <c r="D15" s="168" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="169"/>
       <c r="F15" s="51"/>
       <c r="H15" t="s">
         <v>33</v>
@@ -4324,18 +4343,18 @@
     </row>
     <row r="18" spans="3:9">
       <c r="H18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="3:9">
-      <c r="C19" s="154" t="s">
-        <v>236</v>
-      </c>
-      <c r="D19" s="155"/>
-      <c r="E19" s="156" t="s">
-        <v>167</v>
-      </c>
-      <c r="F19" s="157"/>
+      <c r="C19" s="172" t="s">
+        <v>235</v>
+      </c>
+      <c r="D19" s="173"/>
+      <c r="E19" s="170" t="s">
+        <v>166</v>
+      </c>
+      <c r="F19" s="174"/>
       <c r="H19" t="s">
         <v>32</v>
       </c>
@@ -4358,7 +4377,7 @@
     <row r="22" spans="3:9">
       <c r="C22" s="121"/>
       <c r="D22" s="122" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E22" s="111"/>
       <c r="F22" s="123"/>
@@ -4420,7 +4439,7 @@
     <row r="30" spans="3:9">
       <c r="C30" s="121"/>
       <c r="D30" s="122" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E30" s="111"/>
       <c r="F30" s="123"/>
@@ -4437,7 +4456,7 @@
       <c r="E32" s="122"/>
       <c r="F32" s="123"/>
       <c r="H32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="3:6">
@@ -4448,18 +4467,18 @@
     </row>
     <row r="35" spans="3:6">
       <c r="C35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="3:6">
-      <c r="C36" s="156" t="s">
-        <v>235</v>
-      </c>
-      <c r="D36" s="153"/>
-      <c r="E36" s="154" t="s">
-        <v>167</v>
-      </c>
-      <c r="F36" s="155"/>
+      <c r="C36" s="170" t="s">
+        <v>234</v>
+      </c>
+      <c r="D36" s="171"/>
+      <c r="E36" s="172" t="s">
+        <v>166</v>
+      </c>
+      <c r="F36" s="173"/>
     </row>
     <row r="37" spans="3:6">
       <c r="C37" s="121"/>
@@ -4470,7 +4489,7 @@
     <row r="38" spans="3:6">
       <c r="C38" s="129"/>
       <c r="D38" s="130" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E38" s="130"/>
       <c r="F38" s="131"/>
@@ -4478,7 +4497,7 @@
     <row r="39" spans="3:6">
       <c r="C39" s="129"/>
       <c r="D39" s="130" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E39" s="130"/>
       <c r="F39" s="131"/>
@@ -4486,7 +4505,7 @@
     <row r="40" spans="3:6">
       <c r="C40" s="129"/>
       <c r="D40" s="130" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E40" s="130"/>
       <c r="F40" s="131"/>
@@ -4494,7 +4513,7 @@
     <row r="41" spans="3:6">
       <c r="C41" s="129"/>
       <c r="D41" s="130" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E41" s="130"/>
       <c r="F41" s="131"/>
@@ -4502,7 +4521,7 @@
     <row r="42" spans="3:6">
       <c r="C42" s="129"/>
       <c r="D42" s="130" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E42" s="130"/>
       <c r="F42" s="131"/>
@@ -4510,7 +4529,7 @@
     <row r="43" spans="3:6">
       <c r="C43" s="129"/>
       <c r="D43" s="130" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E43" s="130"/>
       <c r="F43" s="131"/>
@@ -4518,7 +4537,7 @@
     <row r="44" spans="3:6">
       <c r="C44" s="129"/>
       <c r="D44" s="130" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E44" s="130"/>
       <c r="F44" s="131"/>
@@ -4526,7 +4545,7 @@
     <row r="45" spans="3:6">
       <c r="C45" s="129"/>
       <c r="D45" s="130" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E45" s="130"/>
       <c r="F45" s="131"/>
@@ -4546,7 +4565,7 @@
     <row r="48" spans="3:6">
       <c r="C48" s="121"/>
       <c r="D48" s="128" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E48" s="124"/>
       <c r="F48" s="123"/>
@@ -4554,7 +4573,7 @@
     <row r="49" spans="3:9">
       <c r="C49" s="121"/>
       <c r="D49" s="128" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E49" s="124"/>
       <c r="F49" s="123"/>
@@ -4572,7 +4591,7 @@
     <row r="51" spans="3:9">
       <c r="C51" s="121"/>
       <c r="D51" s="128" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E51" s="133">
         <v>9448373533</v>
@@ -4587,10 +4606,10 @@
     </row>
     <row r="53" spans="3:9">
       <c r="C53" s="121"/>
-      <c r="D53" s="151" t="s">
-        <v>163</v>
-      </c>
-      <c r="E53" s="152"/>
+      <c r="D53" s="168" t="s">
+        <v>162</v>
+      </c>
+      <c r="E53" s="169"/>
       <c r="F53" s="123"/>
       <c r="H53" t="s">
         <v>33</v>
@@ -4759,10 +4778,10 @@
     <row r="15" spans="2:8">
       <c r="C15" s="48"/>
       <c r="D15" s="114" t="s">
+        <v>157</v>
+      </c>
+      <c r="E15" s="115" t="s">
         <v>158</v>
-      </c>
-      <c r="E15" s="115" t="s">
-        <v>159</v>
       </c>
       <c r="F15" s="51"/>
     </row>
@@ -4775,7 +4794,7 @@
     <row r="17" spans="3:6">
       <c r="C17" s="48"/>
       <c r="D17" s="114" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E17" s="115">
         <v>5</v>
@@ -4791,7 +4810,7 @@
     <row r="19" spans="3:6">
       <c r="C19" s="48"/>
       <c r="D19" s="114" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E19" s="115">
         <v>501.03</v>
@@ -4807,7 +4826,7 @@
     <row r="21" spans="3:6">
       <c r="C21" s="48"/>
       <c r="D21" s="113" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E21" s="117">
         <v>12345</v>
@@ -4822,10 +4841,10 @@
     </row>
     <row r="23" spans="3:6">
       <c r="C23" s="48"/>
-      <c r="D23" s="151" t="s">
-        <v>157</v>
-      </c>
-      <c r="E23" s="152"/>
+      <c r="D23" s="168" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23" s="169"/>
       <c r="F23" s="51"/>
     </row>
     <row r="24" spans="3:6">

--- a/Design.xlsx
+++ b/Design.xlsx
@@ -2844,8 +2844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Design.xlsx
+++ b/Design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Architecture" sheetId="3" r:id="rId1"/>
@@ -13,14 +13,16 @@
     <sheet name="Web App" sheetId="7" r:id="rId4"/>
     <sheet name="Mobile App" sheetId="9" r:id="rId5"/>
     <sheet name="backup" sheetId="8" state="hidden" r:id="rId6"/>
-    <sheet name="Services" sheetId="10" r:id="rId7"/>
+    <sheet name="Issues - Others" sheetId="12" r:id="rId7"/>
+    <sheet name="Issues - Web App" sheetId="10" r:id="rId8"/>
+    <sheet name="Issues - Mobile App" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="278">
   <si>
     <t>sales_person</t>
   </si>
@@ -752,13 +754,115 @@
   </si>
   <si>
     <t xml:space="preserve">Date/Sales Person / Payment Mode / Category </t>
+  </si>
+  <si>
+    <t>May be some writings/images of the company with a login option. If we can move the popup login to the landing page by default, it is good.</t>
+  </si>
+  <si>
+    <t>Can enter button take to login ? After entering login name and password, instead of clicking login button, enter button also should function as same as login button click.</t>
+  </si>
+  <si>
+    <t>In product master tab, by default the Add New is disabled. How do I make it enable ?  It is confusing. May be by default can make it enable.</t>
+  </si>
+  <si>
+    <t>Since we have lookup table for country, brand, category etc, those fields can we make it as drop down ? Or editable drop down. Otehrwise look up table wont have any use I think.</t>
+  </si>
+  <si>
+    <t>After the update/add new product, I think it is better to populate the table automatically, rathern that every time clicking get all products. May be it will be worth to show the latest added one at the top.</t>
+  </si>
+  <si>
+    <t>Search functionality provide only by search at the top search box.</t>
+  </si>
+  <si>
+    <t>Login / Landing Page</t>
+  </si>
+  <si>
+    <t>Front page of the application need to be changed. , Now the front page looks like a web site with menus at the top. No menu/tabs required here.</t>
+  </si>
+  <si>
+    <t>Deplyment</t>
+  </si>
+  <si>
+    <t>Enable node server running for Web App - Chandra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service Module </t>
+  </si>
+  <si>
+    <t>When order is submitted, service need to return Invoice number to UI - Lakshmy</t>
+  </si>
+  <si>
+    <t>Image upload and Product add to happen together - Lakshmy</t>
+  </si>
+  <si>
+    <t>Summary Page</t>
+  </si>
+  <si>
+    <t>Summary Page Calculation - Deepak</t>
+  </si>
+  <si>
+    <t>Payment Type : Cash / Card - as dropdown - Deepak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When Summary is clicked, Need to print the invoice </t>
+  </si>
+  <si>
+    <t>Able to add image along with product</t>
+  </si>
+  <si>
+    <t>Sales-Person Master</t>
+  </si>
+  <si>
+    <t>Able to Add/Delete/Update Sales person</t>
+  </si>
+  <si>
+    <t>Connect to Rest service</t>
+  </si>
+  <si>
+    <t>Invoice</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>Header information in reports</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>Category-Master, Brand-Master, Type-lookup, coo-lookup, company-lookup, admin_lookup to be maintained backend</t>
+  </si>
+  <si>
+    <t>Arabic Text Input and View</t>
+  </si>
+  <si>
+    <t>Make UI inside card</t>
+  </si>
+  <si>
+    <t>Description of Category, Product etc.. As field in DB, need to change services</t>
+  </si>
+  <si>
+    <t>Add Item</t>
+  </si>
+  <si>
+    <t>Cart Item able to edit</t>
+  </si>
+  <si>
+    <t>Make coloured Grid</t>
+  </si>
+  <si>
+    <t>Able to print invoice, full company details as header in pdf</t>
+  </si>
+  <si>
+    <t>Able to create apk file - Lakshmy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -857,6 +961,13 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1121,7 +1232,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1393,6 +1504,9 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2844,8 +2958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4893,13 +5007,333 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="73.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" s="176"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="176"/>
+      <c r="B7" s="176"/>
+      <c r="C7" s="176"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="184.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="176"/>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="C3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="C4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="177"/>
+      <c r="B11" s="177"/>
+      <c r="C11" s="177"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>265</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="176"/>
+      <c r="B19" s="176"/>
+      <c r="C19" s="176"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="176"/>
+      <c r="B32" s="176"/>
+      <c r="C32" s="176"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>262</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="176"/>
+      <c r="B38" s="176"/>
+      <c r="C38" s="176"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>266</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="175" t="s">
+        <v>268</v>
+      </c>
+      <c r="B45" s="175"/>
+      <c r="C45" s="175" t="s">
+        <v>269</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="48.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" s="176"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="176"/>
+      <c r="B8" s="176"/>
+      <c r="C8" s="176"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>273</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="176"/>
+      <c r="B11" s="176"/>
+      <c r="C11" s="176"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>274</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Design.xlsx
+++ b/Design.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="299">
   <si>
     <t>sales_person</t>
   </si>
@@ -798,12 +798,6 @@
     <t>Summary Page</t>
   </si>
   <si>
-    <t>Summary Page Calculation - Deepak</t>
-  </si>
-  <si>
-    <t>Payment Type : Cash / Card - as dropdown - Deepak</t>
-  </si>
-  <si>
     <t xml:space="preserve">When Summary is clicked, Need to print the invoice </t>
   </si>
   <si>
@@ -849,13 +843,82 @@
     <t>Cart Item able to edit</t>
   </si>
   <si>
-    <t>Make coloured Grid</t>
-  </si>
-  <si>
     <t>Able to print invoice, full company details as header in pdf</t>
   </si>
   <si>
     <t>Able to create apk file - Lakshmy</t>
+  </si>
+  <si>
+    <t>Able to edit Invoice</t>
+  </si>
+  <si>
+    <t>Excel Download</t>
+  </si>
+  <si>
+    <t>Customer Vat No</t>
+  </si>
+  <si>
+    <t>Discount for each item</t>
+  </si>
+  <si>
+    <t>Category Master</t>
+  </si>
+  <si>
+    <t>Brand Master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Able to Add/Delete/Update </t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Search in Category, Product</t>
+  </si>
+  <si>
+    <t>Ability to reduce clicks</t>
+  </si>
+  <si>
+    <t>Ability to sink image from web server to mobile app</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>Mobile App</t>
+  </si>
+  <si>
+    <t>Rest Service</t>
+  </si>
+  <si>
+    <t>Printer</t>
+  </si>
+  <si>
+    <t>Option 1</t>
+  </si>
+  <si>
+    <t>Processing</t>
+  </si>
+  <si>
+    <t>JSON - HTML - PDF- Print</t>
+  </si>
+  <si>
+    <t>Physical printing</t>
+  </si>
+  <si>
+    <t>Option 2</t>
+  </si>
+  <si>
+    <t>HTML - PDF- Print</t>
+  </si>
+  <si>
+    <t>Make coloured Grid - in future</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summary Page Calculation </t>
+  </si>
+  <si>
+    <t>Payment Type : Cash / Card - as dropdown</t>
   </si>
 </sst>
 </file>
@@ -1474,6 +1537,9 @@
     <xf numFmtId="14" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1504,9 +1570,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2470,10 +2533,10 @@
       <c r="D30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="165"/>
-      <c r="F30" s="165"/>
-      <c r="G30" s="165"/>
-      <c r="H30" s="166"/>
+      <c r="E30" s="168"/>
+      <c r="F30" s="168"/>
+      <c r="G30" s="168"/>
+      <c r="H30" s="169"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="3"/>
@@ -2958,8 +3021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R83"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2994,28 +3057,28 @@
     </row>
     <row r="3" spans="1:9">
       <c r="B3" s="48"/>
-      <c r="C3" s="167" t="s">
+      <c r="C3" s="170" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="167"/>
+      <c r="D3" s="170"/>
       <c r="E3" s="147"/>
       <c r="F3" s="51"/>
     </row>
     <row r="4" spans="1:9">
       <c r="B4" s="48"/>
-      <c r="C4" s="167" t="s">
+      <c r="C4" s="170" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="167"/>
+      <c r="D4" s="170"/>
       <c r="E4" s="147"/>
       <c r="F4" s="51"/>
     </row>
     <row r="5" spans="1:9">
       <c r="B5" s="48"/>
-      <c r="C5" s="167" t="s">
+      <c r="C5" s="170" t="s">
         <v>153</v>
       </c>
-      <c r="D5" s="167"/>
+      <c r="D5" s="170"/>
       <c r="E5" s="147"/>
       <c r="F5" s="51"/>
     </row>
@@ -4348,8 +4411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C5:I55"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4367,26 +4430,26 @@
     </row>
     <row r="6" spans="3:9">
       <c r="C6" s="48"/>
-      <c r="D6" s="167" t="s">
+      <c r="D6" s="170" t="s">
         <v>152</v>
       </c>
-      <c r="E6" s="167"/>
+      <c r="E6" s="170"/>
       <c r="F6" s="51"/>
     </row>
     <row r="7" spans="3:9">
       <c r="C7" s="48"/>
-      <c r="D7" s="167" t="s">
+      <c r="D7" s="170" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="167"/>
+      <c r="E7" s="170"/>
       <c r="F7" s="51"/>
     </row>
     <row r="8" spans="3:9">
       <c r="C8" s="48"/>
-      <c r="D8" s="167" t="s">
+      <c r="D8" s="170" t="s">
         <v>153</v>
       </c>
-      <c r="E8" s="167"/>
+      <c r="E8" s="170"/>
       <c r="F8" s="51"/>
     </row>
     <row r="9" spans="3:9">
@@ -4431,10 +4494,10 @@
     </row>
     <row r="15" spans="3:9">
       <c r="C15" s="48"/>
-      <c r="D15" s="168" t="s">
+      <c r="D15" s="171" t="s">
         <v>165</v>
       </c>
-      <c r="E15" s="169"/>
+      <c r="E15" s="172"/>
       <c r="F15" s="51"/>
       <c r="H15" t="s">
         <v>33</v>
@@ -4461,14 +4524,14 @@
       </c>
     </row>
     <row r="19" spans="3:9">
-      <c r="C19" s="172" t="s">
+      <c r="C19" s="175" t="s">
         <v>235</v>
       </c>
-      <c r="D19" s="173"/>
-      <c r="E19" s="170" t="s">
+      <c r="D19" s="176"/>
+      <c r="E19" s="173" t="s">
         <v>166</v>
       </c>
-      <c r="F19" s="174"/>
+      <c r="F19" s="177"/>
       <c r="H19" t="s">
         <v>32</v>
       </c>
@@ -4585,14 +4648,14 @@
       </c>
     </row>
     <row r="36" spans="3:6">
-      <c r="C36" s="170" t="s">
+      <c r="C36" s="173" t="s">
         <v>234</v>
       </c>
-      <c r="D36" s="171"/>
-      <c r="E36" s="172" t="s">
+      <c r="D36" s="174"/>
+      <c r="E36" s="175" t="s">
         <v>166</v>
       </c>
-      <c r="F36" s="173"/>
+      <c r="F36" s="176"/>
     </row>
     <row r="37" spans="3:6">
       <c r="C37" s="121"/>
@@ -4720,10 +4783,10 @@
     </row>
     <row r="53" spans="3:9">
       <c r="C53" s="121"/>
-      <c r="D53" s="168" t="s">
+      <c r="D53" s="171" t="s">
         <v>162</v>
       </c>
-      <c r="E53" s="169"/>
+      <c r="E53" s="172"/>
       <c r="F53" s="123"/>
       <c r="H53" t="s">
         <v>33</v>
@@ -4955,10 +5018,10 @@
     </row>
     <row r="23" spans="3:6">
       <c r="C23" s="48"/>
-      <c r="D23" s="168" t="s">
+      <c r="D23" s="171" t="s">
         <v>156</v>
       </c>
-      <c r="E23" s="169"/>
+      <c r="E23" s="172"/>
       <c r="F23" s="51"/>
     </row>
     <row r="24" spans="3:6">
@@ -5010,7 +5073,7 @@
   <dimension ref="A2:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5021,9 +5084,9 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3">
-      <c r="A2" s="176"/>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
@@ -5041,13 +5104,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="176"/>
-      <c r="B7" s="176"/>
-      <c r="C7" s="176"/>
+      <c r="A7" s="166"/>
+      <c r="B7" s="166"/>
+      <c r="C7" s="166"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
@@ -5073,7 +5136,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -5083,10 +5146,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5096,9 +5159,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="176"/>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
+      <c r="A1" s="166"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
@@ -5121,125 +5184,163 @@
         <v>245</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="177"/>
-      <c r="B11" s="177"/>
-      <c r="C11" s="177"/>
+    <row r="7" spans="1:3">
+      <c r="A7" s="167"/>
+      <c r="B7" s="167"/>
+      <c r="C7" s="167"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="A12" s="166"/>
+      <c r="B12" s="166"/>
+      <c r="C12" s="166"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="166"/>
+      <c r="B25" s="166"/>
+      <c r="C25" s="166"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>260</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>279</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>280</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="166"/>
+      <c r="B39" s="166"/>
+      <c r="C39" s="166"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>264</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
         <v>265</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="41" spans="1:3">
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="176"/>
-      <c r="B19" s="176"/>
-      <c r="C19" s="176"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>141</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24">
-        <v>5</v>
-      </c>
-      <c r="C24" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25">
-        <v>6</v>
-      </c>
-      <c r="C25" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="176"/>
-      <c r="B32" s="176"/>
-      <c r="C32" s="176"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>262</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="176"/>
-      <c r="B38" s="176"/>
-      <c r="C38" s="176"/>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
+    <row r="46" spans="1:3">
+      <c r="A46" s="165" t="s">
         <v>266</v>
       </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B46" s="165"/>
+      <c r="C46" s="165" t="s">
         <v>267</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="175" t="s">
-        <v>268</v>
-      </c>
-      <c r="B45" s="175"/>
-      <c r="C45" s="175" t="s">
-        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -5250,23 +5351,27 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C12"/>
+  <dimension ref="A2:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
-      <c r="A2" s="176"/>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-    </row>
-    <row r="3" spans="1:3">
+    <row r="2" spans="1:11">
+      <c r="A2" s="166"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>257</v>
       </c>
@@ -5274,63 +5379,150 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="176"/>
-      <c r="B8" s="176"/>
-      <c r="C8" s="176"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>273</v>
-      </c>
-      <c r="B9">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="166"/>
+      <c r="B9" s="166"/>
+      <c r="C9" s="166"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>271</v>
+      </c>
+      <c r="B10">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="176"/>
-      <c r="B11" s="176"/>
-      <c r="C11" s="176"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="C10" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>278</v>
+      </c>
+      <c r="G11" s="166"/>
+      <c r="H11" s="166" t="s">
+        <v>287</v>
+      </c>
+      <c r="I11" s="166" t="s">
+        <v>291</v>
+      </c>
+      <c r="J11" s="166" t="s">
+        <v>288</v>
+      </c>
+      <c r="K11" s="166" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="166"/>
+      <c r="B13" s="166"/>
+      <c r="C13" s="166"/>
+      <c r="G13" t="s">
+        <v>290</v>
+      </c>
+      <c r="H13" t="s">
+        <v>286</v>
+      </c>
+      <c r="I13" t="s">
+        <v>292</v>
+      </c>
+      <c r="K13" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
         <v>160</v>
       </c>
-      <c r="B12">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="G15" t="s">
+        <v>294</v>
+      </c>
+      <c r="H15" t="s">
+        <v>286</v>
+      </c>
+      <c r="J15" t="s">
+        <v>295</v>
+      </c>
+      <c r="K15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="166"/>
+      <c r="B17" s="166"/>
+      <c r="C17" s="166"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>282</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19">
         <v>2</v>
       </c>
-      <c r="C12" t="s">
-        <v>274</v>
+      <c r="C19" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
